--- a/experimental_data2/Data Figure 3D 3E S3A S3B S4D.xlsx
+++ b/experimental_data2/Data Figure 3D 3E S3A S3B S4D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jochen\Ase1revision\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE06CFF-9F81-4758-9451-F35C98CEE0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4985B313-5A26-4714-B006-F663DDE1547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="10">
   <si>
     <t>event id</t>
   </si>
@@ -7250,7 +7250,7 @@
   <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H38" sqref="H38:H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8340,20 +8340,23 @@
       <c r="A38">
         <v>307</v>
       </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>13.6716953267512</v>
+      <c r="D38" t="s">
+        <v>4</v>
       </c>
       <c r="E38">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F38">
+        <v>13.6716953267512</v>
+      </c>
+      <c r="G38">
         <v>10.7282794641204</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4</v>
       </c>
       <c r="H38">
         <v>264.65819736505802</v>
@@ -8366,20 +8369,23 @@
       <c r="A39">
         <v>307</v>
       </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
       <c r="C39">
         <v>2.6</v>
       </c>
       <c r="D39">
-        <v>10.9772592719243</v>
+        <v>199.48627195556099</v>
       </c>
       <c r="E39">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F39">
+        <v>10.9772592719243</v>
+      </c>
+      <c r="G39">
         <v>10.5227524976371</v>
-      </c>
-      <c r="G39">
-        <v>199.48627195556099</v>
       </c>
       <c r="H39">
         <v>26.403818520182401</v>
@@ -8392,20 +8398,23 @@
       <c r="A40">
         <v>307</v>
       </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
       <c r="C40">
         <v>5.2</v>
       </c>
       <c r="D40">
-        <v>23.586817692287301</v>
+        <v>225.89803706505199</v>
       </c>
       <c r="E40">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F40">
+        <v>23.586817692287301</v>
+      </c>
+      <c r="G40">
         <v>21.750253080041901</v>
-      </c>
-      <c r="G40">
-        <v>225.89803706505199</v>
       </c>
       <c r="H40">
         <v>446.317792849976</v>
@@ -8418,20 +8427,23 @@
       <c r="A41">
         <v>307</v>
       </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
       <c r="C41">
         <v>7.8</v>
       </c>
       <c r="D41">
-        <v>21.203413503453501</v>
+        <v>159.14984565236099</v>
       </c>
       <c r="E41">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F41">
+        <v>21.203413503453501</v>
+      </c>
+      <c r="G41">
         <v>18.835715361073301</v>
-      </c>
-      <c r="G41">
-        <v>159.14984565236099</v>
       </c>
       <c r="H41">
         <v>231.17023778707701</v>
@@ -8444,20 +8456,23 @@
       <c r="A42">
         <v>307</v>
       </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
       <c r="C42">
         <v>10.4</v>
       </c>
       <c r="D42">
-        <v>24.052344505871499</v>
+        <v>179.53418531584899</v>
       </c>
       <c r="E42">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F42">
+        <v>24.052344505871499</v>
+      </c>
+      <c r="G42">
         <v>19.805764196193401</v>
-      </c>
-      <c r="G42">
-        <v>179.53418531584899</v>
       </c>
       <c r="H42">
         <v>235.18398580324799</v>
@@ -8470,20 +8485,23 @@
       <c r="A43">
         <v>307</v>
       </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
       <c r="C43">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>25.0715627445915</v>
+        <v>149.10883287046099</v>
       </c>
       <c r="E43">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F43">
+        <v>25.0715627445915</v>
+      </c>
+      <c r="G43">
         <v>21.400200757115002</v>
-      </c>
-      <c r="G43">
-        <v>149.10883287046099</v>
       </c>
       <c r="H43">
         <v>149.42030789509101</v>
@@ -8496,20 +8514,23 @@
       <c r="A44">
         <v>307</v>
       </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
       <c r="C44">
         <v>15.6</v>
       </c>
       <c r="D44">
-        <v>32.297319218388303</v>
+        <v>191.93046465602799</v>
       </c>
       <c r="E44">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F44">
+        <v>32.297319218388303</v>
+      </c>
+      <c r="G44">
         <v>23.929242613766402</v>
-      </c>
-      <c r="G44">
-        <v>191.93046465602799</v>
       </c>
       <c r="H44">
         <v>303.92281248345103</v>
@@ -8522,20 +8543,23 @@
       <c r="A45">
         <v>307</v>
       </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
       <c r="C45">
         <v>18.2</v>
       </c>
       <c r="D45">
-        <v>43.953267693906703</v>
+        <v>157.708869854147</v>
       </c>
       <c r="E45">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F45">
+        <v>43.953267693906703</v>
+      </c>
+      <c r="G45">
         <v>37.511248247923199</v>
-      </c>
-      <c r="G45">
-        <v>157.708869854147</v>
       </c>
       <c r="H45">
         <v>269.39913094253097</v>
@@ -8548,20 +8572,23 @@
       <c r="A46">
         <v>307</v>
       </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
       <c r="C46">
         <v>20.8</v>
       </c>
       <c r="D46">
-        <v>44.584504003813599</v>
+        <v>128.946984119939</v>
       </c>
       <c r="E46">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F46">
+        <v>44.584504003813599</v>
+      </c>
+      <c r="G46">
         <v>41.313412530386202</v>
-      </c>
-      <c r="G46">
-        <v>128.946984119939</v>
       </c>
       <c r="H46">
         <v>188.50737173114899</v>
@@ -8574,20 +8601,23 @@
       <c r="A47">
         <v>307</v>
       </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
       <c r="C47">
         <v>23.4</v>
       </c>
       <c r="D47">
-        <v>51.121358544184098</v>
+        <v>137.381287069042</v>
       </c>
       <c r="E47">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F47">
+        <v>51.121358544184098</v>
+      </c>
+      <c r="G47">
         <v>45.705757192146699</v>
-      </c>
-      <c r="G47">
-        <v>137.381287069042</v>
       </c>
       <c r="H47">
         <v>228.16958762110599</v>
@@ -8600,20 +8630,23 @@
       <c r="A48">
         <v>307</v>
       </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
       <c r="C48">
         <v>26</v>
       </c>
       <c r="D48">
-        <v>48.125119747228801</v>
+        <v>145.500616535841</v>
       </c>
       <c r="E48">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F48">
+        <v>48.125119747228801</v>
+      </c>
+      <c r="G48">
         <v>39.050778797371699</v>
-      </c>
-      <c r="G48">
-        <v>145.500616535841</v>
       </c>
       <c r="H48">
         <v>258.46279211954698</v>
@@ -8626,20 +8659,23 @@
       <c r="A49">
         <v>307</v>
       </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
       <c r="C49">
         <v>28.6</v>
       </c>
       <c r="D49">
-        <v>47.319166423215101</v>
+        <v>128.61657381750999</v>
       </c>
       <c r="E49">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F49">
+        <v>47.319166423215101</v>
+      </c>
+      <c r="G49">
         <v>39.939490975925601</v>
-      </c>
-      <c r="G49">
-        <v>128.61657381750999</v>
       </c>
       <c r="H49">
         <v>161.805565185175</v>
@@ -8652,20 +8688,23 @@
       <c r="A50">
         <v>307</v>
       </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
       <c r="C50">
         <v>31.2</v>
       </c>
       <c r="D50">
-        <v>47.568649339910998</v>
+        <v>107.094418578976</v>
       </c>
       <c r="E50">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F50">
+        <v>47.568649339910998</v>
+      </c>
+      <c r="G50">
         <v>42.810524654964503</v>
-      </c>
-      <c r="G50">
-        <v>107.094418578976</v>
       </c>
       <c r="H50">
         <v>176.55809153543399</v>
@@ -8678,20 +8717,23 @@
       <c r="A51">
         <v>308</v>
       </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>8.0665897810231098</v>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
       <c r="E51">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F51">
+        <v>8.0665897810231098</v>
+      </c>
+      <c r="G51">
         <v>7.9792330105615799</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4</v>
       </c>
       <c r="H51">
         <v>5.2844402813211904</v>
@@ -8704,20 +8746,23 @@
       <c r="A52">
         <v>308</v>
       </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
       <c r="C52">
         <v>2.6</v>
       </c>
       <c r="D52">
-        <v>20.1395222751879</v>
+        <v>209.514261994093</v>
       </c>
       <c r="E52">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F52">
+        <v>20.1395222751879</v>
+      </c>
+      <c r="G52">
         <v>15.858298226349101</v>
-      </c>
-      <c r="G52">
-        <v>209.514261994093</v>
       </c>
       <c r="H52">
         <v>158.365337150117</v>
@@ -8730,20 +8775,23 @@
       <c r="A53">
         <v>308</v>
       </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
       <c r="C53">
         <v>5.2</v>
       </c>
       <c r="D53">
-        <v>33.405318597200697</v>
+        <v>166.45103921959</v>
       </c>
       <c r="E53">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F53">
+        <v>33.405318597200697</v>
+      </c>
+      <c r="G53">
         <v>30.3617019707645</v>
-      </c>
-      <c r="G53">
-        <v>166.45103921959</v>
       </c>
       <c r="H53">
         <v>250.06429922272599</v>
@@ -8756,20 +8804,23 @@
       <c r="A54">
         <v>308</v>
       </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
       <c r="C54">
         <v>7.8</v>
       </c>
       <c r="D54">
-        <v>31.867557748121602</v>
+        <v>115.420405691638</v>
       </c>
       <c r="E54">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F54">
+        <v>31.867557748121602</v>
+      </c>
+      <c r="G54">
         <v>28.706581274700302</v>
-      </c>
-      <c r="G54">
-        <v>115.420405691638</v>
       </c>
       <c r="H54">
         <v>181.92616894529601</v>
@@ -8782,20 +8833,23 @@
       <c r="A55">
         <v>308</v>
       </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
       <c r="C55">
         <v>10.4</v>
       </c>
       <c r="D55">
-        <v>33.248924616005098</v>
+        <v>203.05053920910399</v>
       </c>
       <c r="E55">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F55">
+        <v>33.248924616005098</v>
+      </c>
+      <c r="G55">
         <v>32.703455881509299</v>
-      </c>
-      <c r="G55">
-        <v>203.05053920910399</v>
       </c>
       <c r="H55">
         <v>111.633907057984</v>
@@ -8808,20 +8862,23 @@
       <c r="A56">
         <v>308</v>
       </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
       <c r="C56">
         <v>13</v>
       </c>
       <c r="D56">
-        <v>42.921866497364597</v>
+        <v>173.68156255101499</v>
       </c>
       <c r="E56">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F56">
+        <v>42.921866497364597</v>
+      </c>
+      <c r="G56">
         <v>42.039149172073401</v>
-      </c>
-      <c r="G56">
-        <v>173.68156255101499</v>
       </c>
       <c r="H56">
         <v>244.89764497732301</v>
@@ -8834,20 +8891,23 @@
       <c r="A57">
         <v>308</v>
       </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
       <c r="C57">
         <v>15.6</v>
       </c>
       <c r="D57">
-        <v>42.245323382278599</v>
+        <v>181.82364646396999</v>
       </c>
       <c r="E57">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F57">
+        <v>42.245323382278599</v>
+      </c>
+      <c r="G57">
         <v>38.659404449193801</v>
-      </c>
-      <c r="G57">
-        <v>181.82364646396999</v>
       </c>
       <c r="H57">
         <v>136.846136167964</v>
@@ -8860,20 +8920,23 @@
       <c r="A58">
         <v>308</v>
       </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
       <c r="C58">
         <v>18.2</v>
       </c>
       <c r="D58">
-        <v>56.817140180665099</v>
+        <v>200.823751734556</v>
       </c>
       <c r="E58">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F58">
+        <v>56.817140180665099</v>
+      </c>
+      <c r="G58">
         <v>52.528987208133003</v>
-      </c>
-      <c r="G58">
-        <v>200.823751734556</v>
       </c>
       <c r="H58">
         <v>337.377721991773</v>
@@ -8886,20 +8949,23 @@
       <c r="A59">
         <v>308</v>
       </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
       <c r="C59">
         <v>20.8</v>
       </c>
       <c r="D59">
-        <v>62.268977646063703</v>
+        <v>96.920895144401399</v>
       </c>
       <c r="E59">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F59">
+        <v>62.268977646063703</v>
+      </c>
+      <c r="G59">
         <v>58.693089719706201</v>
-      </c>
-      <c r="G59">
-        <v>96.920895144401399</v>
       </c>
       <c r="H59">
         <v>290.51915095039101</v>
@@ -8912,20 +8978,23 @@
       <c r="A60">
         <v>308</v>
       </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
       <c r="C60">
         <v>23.4</v>
       </c>
       <c r="D60">
-        <v>63.2066667793205</v>
+        <v>93.010233747895697</v>
       </c>
       <c r="E60">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F60">
+        <v>63.2066667793205</v>
+      </c>
+      <c r="G60">
         <v>56.382059933931401</v>
-      </c>
-      <c r="G60">
-        <v>93.010233747895697</v>
       </c>
       <c r="H60">
         <v>282.49593043096797</v>
@@ -8938,20 +9007,23 @@
       <c r="A61">
         <v>308</v>
       </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
       <c r="C61">
         <v>26</v>
       </c>
       <c r="D61">
-        <v>40.270884520060797</v>
+        <v>189.117323618049</v>
       </c>
       <c r="E61">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F61">
+        <v>40.270884520060797</v>
+      </c>
+      <c r="G61">
         <v>35.038337471034097</v>
-      </c>
-      <c r="G61">
-        <v>189.117323618049</v>
       </c>
       <c r="H61">
         <v>122.685551240961</v>
@@ -8964,20 +9036,23 @@
       <c r="A62">
         <v>309</v>
       </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>11.7519748142621</v>
+      <c r="D62" t="s">
+        <v>4</v>
       </c>
       <c r="E62">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F62">
+        <v>11.7519748142621</v>
+      </c>
+      <c r="G62">
         <v>11.905049011797299</v>
-      </c>
-      <c r="G62" t="s">
-        <v>4</v>
       </c>
       <c r="H62">
         <v>5.3177292629358899</v>
@@ -8990,20 +9065,23 @@
       <c r="A63">
         <v>309</v>
       </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
       <c r="C63">
         <v>2.6</v>
       </c>
       <c r="D63">
-        <v>15.741078553398699</v>
+        <v>217.01698973222901</v>
       </c>
       <c r="E63">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F63">
+        <v>15.741078553398699</v>
+      </c>
+      <c r="G63">
         <v>13.516206641193801</v>
-      </c>
-      <c r="G63">
-        <v>217.01698973222901</v>
       </c>
       <c r="H63">
         <v>69.541350301537904</v>
@@ -9016,20 +9094,23 @@
       <c r="A64">
         <v>309</v>
       </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
       <c r="C64">
         <v>5.2</v>
       </c>
       <c r="D64">
-        <v>33.357109253951897</v>
+        <v>216.12928032201901</v>
       </c>
       <c r="E64">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F64">
+        <v>33.357109253951897</v>
+      </c>
+      <c r="G64">
         <v>29.52632559992</v>
-      </c>
-      <c r="G64">
-        <v>216.12928032201901</v>
       </c>
       <c r="H64">
         <v>130.06567162814599</v>
@@ -9042,20 +9123,23 @@
       <c r="A65">
         <v>309</v>
       </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
       <c r="C65">
         <v>7.8</v>
       </c>
       <c r="D65">
-        <v>41.826676247536803</v>
+        <v>145.28710784691</v>
       </c>
       <c r="E65">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F65">
+        <v>41.826676247536803</v>
+      </c>
+      <c r="G65">
         <v>38.981663185348403</v>
-      </c>
-      <c r="G65">
-        <v>145.28710784691</v>
       </c>
       <c r="H65">
         <v>144.00660613366799</v>
@@ -9068,20 +9152,23 @@
       <c r="A66">
         <v>309</v>
       </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
       <c r="C66">
         <v>10.4</v>
       </c>
       <c r="D66">
-        <v>37.580733281051899</v>
+        <v>151.860283619938</v>
       </c>
       <c r="E66">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F66">
+        <v>37.580733281051899</v>
+      </c>
+      <c r="G66">
         <v>34.386828886685599</v>
-      </c>
-      <c r="G66">
-        <v>151.860283619938</v>
       </c>
       <c r="H66">
         <v>99.6001370622335</v>
@@ -9094,20 +9181,23 @@
       <c r="A67">
         <v>309</v>
       </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
       <c r="C67">
         <v>13</v>
       </c>
       <c r="D67">
-        <v>46.843218059847601</v>
+        <v>130.94391607143999</v>
       </c>
       <c r="E67">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F67">
+        <v>46.843218059847601</v>
+      </c>
+      <c r="G67">
         <v>43.100477309784999</v>
-      </c>
-      <c r="G67">
-        <v>130.94391607143999</v>
       </c>
       <c r="H67">
         <v>210.00585114881099</v>
@@ -9120,20 +9210,23 @@
       <c r="A68">
         <v>309</v>
       </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
       <c r="C68">
         <v>15.6</v>
       </c>
       <c r="D68">
-        <v>45.1144435153955</v>
+        <v>108.061150407048</v>
       </c>
       <c r="E68">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F68">
+        <v>45.1144435153955</v>
+      </c>
+      <c r="G68">
         <v>43.887507346750397</v>
-      </c>
-      <c r="G68">
-        <v>108.061150407048</v>
       </c>
       <c r="H68">
         <v>176.064451546486</v>
@@ -9146,20 +9239,23 @@
       <c r="A69">
         <v>310</v>
       </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>8.0425975636285401</v>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
       <c r="E69">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F69">
+        <v>8.0425975636285401</v>
+      </c>
+      <c r="G69">
         <v>6.5729338830336701</v>
-      </c>
-      <c r="G69" t="s">
-        <v>4</v>
       </c>
       <c r="H69">
         <v>87.960562930748594</v>
@@ -9172,20 +9268,23 @@
       <c r="A70">
         <v>310</v>
       </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
       <c r="C70">
         <v>2.6</v>
       </c>
       <c r="D70">
-        <v>11.501694645718599</v>
+        <v>206.602375166505</v>
       </c>
       <c r="E70">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F70">
+        <v>11.501694645718599</v>
+      </c>
+      <c r="G70">
         <v>7.02990244655971</v>
-      </c>
-      <c r="G70">
-        <v>206.602375166505</v>
       </c>
       <c r="H70">
         <v>343.05343223829999</v>
@@ -9198,20 +9297,23 @@
       <c r="A71">
         <v>310</v>
       </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
       <c r="C71">
         <v>5.2</v>
       </c>
       <c r="D71">
-        <v>18.286659071074599</v>
+        <v>183.13034590171199</v>
       </c>
       <c r="E71">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F71">
+        <v>18.286659071074599</v>
+      </c>
+      <c r="G71">
         <v>18.228208975392199</v>
-      </c>
-      <c r="G71">
-        <v>183.13034590171199</v>
       </c>
       <c r="H71">
         <v>5.3926902395057796</v>
@@ -9224,20 +9326,23 @@
       <c r="A72">
         <v>310</v>
       </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
       <c r="C72">
         <v>7.8</v>
       </c>
       <c r="D72">
-        <v>28.919490695182699</v>
+        <v>123.45231303014501</v>
       </c>
       <c r="E72">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F72">
+        <v>28.919490695182699</v>
+      </c>
+      <c r="G72">
         <v>26.341671468995301</v>
-      </c>
-      <c r="G72">
-        <v>123.45231303014501</v>
       </c>
       <c r="H72">
         <v>61.732990865521401</v>
@@ -9250,20 +9355,23 @@
       <c r="A73">
         <v>310</v>
       </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
       <c r="C73">
         <v>10.4</v>
       </c>
       <c r="D73">
-        <v>35.160165690235402</v>
+        <v>118.158000372967</v>
       </c>
       <c r="E73">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F73">
+        <v>35.160165690235402</v>
+      </c>
+      <c r="G73">
         <v>31.623059245726498</v>
-      </c>
-      <c r="G73">
-        <v>118.158000372967</v>
       </c>
       <c r="H73">
         <v>139.06334517489401</v>
@@ -9276,20 +9384,23 @@
       <c r="A74">
         <v>310</v>
       </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
       <c r="C74">
         <v>13</v>
       </c>
       <c r="D74">
-        <v>29.976198478312</v>
+        <v>47.246118723142402</v>
       </c>
       <c r="E74">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F74">
+        <v>29.976198478312</v>
+      </c>
+      <c r="G74">
         <v>25.094379499751</v>
-      </c>
-      <c r="G74">
-        <v>47.246118723142402</v>
       </c>
       <c r="H74">
         <v>155.49771863017099</v>
@@ -9302,20 +9413,23 @@
       <c r="A75">
         <v>311</v>
       </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75">
-        <v>7.7861727479274201</v>
+      <c r="D75" t="s">
+        <v>4</v>
       </c>
       <c r="E75">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F75">
+        <v>7.7861727479274201</v>
+      </c>
+      <c r="G75">
         <v>6.4248107127349998</v>
-      </c>
-      <c r="G75" t="s">
-        <v>4</v>
       </c>
       <c r="H75">
         <v>408.50894969816898</v>
@@ -9328,20 +9442,23 @@
       <c r="A76">
         <v>311</v>
       </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
       <c r="C76">
         <v>2.6</v>
       </c>
       <c r="D76">
-        <v>19.432435598532798</v>
+        <v>232.25593682930699</v>
       </c>
       <c r="E76">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F76">
+        <v>19.432435598532798</v>
+      </c>
+      <c r="G76">
         <v>17.102271692574298</v>
-      </c>
-      <c r="G76">
-        <v>232.25593682930699</v>
       </c>
       <c r="H76">
         <v>105.519814204312</v>
@@ -9354,20 +9471,23 @@
       <c r="A77">
         <v>311</v>
       </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
       <c r="C77">
         <v>5.2</v>
       </c>
       <c r="D77">
-        <v>26.110539646325499</v>
+        <v>96.640303423097507</v>
       </c>
       <c r="E77">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F77">
+        <v>26.110539646325499</v>
+      </c>
+      <c r="G77">
         <v>24.2973323218452</v>
-      </c>
-      <c r="G77">
-        <v>96.640303423097507</v>
       </c>
       <c r="H77">
         <v>242.39720298362801</v>
@@ -9380,20 +9500,23 @@
       <c r="A78">
         <v>312</v>
       </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78">
-        <v>10.508351474463501</v>
+      <c r="D78" t="s">
+        <v>4</v>
       </c>
       <c r="E78">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F78">
+        <v>10.508351474463501</v>
+      </c>
+      <c r="G78">
         <v>10.6264875678797</v>
-      </c>
-      <c r="G78" t="s">
-        <v>4</v>
       </c>
       <c r="H78">
         <v>5.3199214718580601</v>
@@ -9406,20 +9529,23 @@
       <c r="A79">
         <v>312</v>
       </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
       <c r="C79">
         <v>2.6</v>
       </c>
       <c r="D79">
-        <v>21.5247291470946</v>
+        <v>231.60069548153899</v>
       </c>
       <c r="E79">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F79">
+        <v>21.5247291470946</v>
+      </c>
+      <c r="G79">
         <v>19.4607243787502</v>
-      </c>
-      <c r="G79">
-        <v>231.60069548153899</v>
       </c>
       <c r="H79">
         <v>149.161167568221</v>
@@ -9432,20 +9558,23 @@
       <c r="A80">
         <v>312</v>
       </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
       <c r="C80">
         <v>5.2</v>
       </c>
       <c r="D80">
-        <v>22.2714444173826</v>
+        <v>155.25826291526801</v>
       </c>
       <c r="E80">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F80">
+        <v>22.2714444173826</v>
+      </c>
+      <c r="G80">
         <v>20.856525501307701</v>
-      </c>
-      <c r="G80">
-        <v>155.25826291526801</v>
       </c>
       <c r="H80">
         <v>206.596023746123</v>
@@ -9458,20 +9587,23 @@
       <c r="A81">
         <v>312</v>
       </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
       <c r="C81">
         <v>7.8</v>
       </c>
       <c r="D81">
-        <v>25.423519531798</v>
+        <v>148.80245882377599</v>
       </c>
       <c r="E81">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F81">
+        <v>25.423519531798</v>
+      </c>
+      <c r="G81">
         <v>21.4038758199654</v>
-      </c>
-      <c r="G81">
-        <v>148.80245882377599</v>
       </c>
       <c r="H81">
         <v>189.68927137757601</v>
@@ -9484,20 +9616,23 @@
       <c r="A82">
         <v>312</v>
       </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
       <c r="C82">
         <v>10.4</v>
       </c>
       <c r="D82">
-        <v>35.318705118976503</v>
+        <v>181.26534445200099</v>
       </c>
       <c r="E82">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F82">
+        <v>35.318705118976503</v>
+      </c>
+      <c r="G82">
         <v>32.918387861922596</v>
-      </c>
-      <c r="G82">
-        <v>181.26534445200099</v>
       </c>
       <c r="H82">
         <v>207.75058190292501</v>
@@ -9510,20 +9645,23 @@
       <c r="A83">
         <v>312</v>
       </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
       <c r="C83">
         <v>13</v>
       </c>
       <c r="D83">
-        <v>28.581222702008802</v>
+        <v>48.680852998770099</v>
       </c>
       <c r="E83">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F83">
+        <v>28.581222702008802</v>
+      </c>
+      <c r="G83">
         <v>26.301027568222999</v>
-      </c>
-      <c r="G83">
-        <v>48.680852998770099</v>
       </c>
       <c r="H83">
         <v>316.638462034638</v>
@@ -9536,20 +9674,23 @@
       <c r="A84">
         <v>313</v>
       </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
       <c r="C84">
         <v>0</v>
       </c>
-      <c r="D84">
-        <v>17.682042716442801</v>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
       <c r="E84">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F84">
+        <v>17.682042716442801</v>
+      </c>
+      <c r="G84">
         <v>12.3463717792777</v>
-      </c>
-      <c r="G84" t="s">
-        <v>4</v>
       </c>
       <c r="H84">
         <v>208.32626045663699</v>
@@ -9562,20 +9703,23 @@
       <c r="A85">
         <v>313</v>
       </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
       <c r="C85">
         <v>2.6</v>
       </c>
       <c r="D85">
-        <v>18.11604427488</v>
+        <v>155.557422145564</v>
       </c>
       <c r="E85">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F85">
+        <v>18.11604427488</v>
+      </c>
+      <c r="G85">
         <v>14.9452570826636</v>
-      </c>
-      <c r="G85">
-        <v>155.557422145564</v>
       </c>
       <c r="H85">
         <v>171.01509103378001</v>
@@ -9588,20 +9732,23 @@
       <c r="A86">
         <v>313</v>
       </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
       <c r="C86">
         <v>5.2</v>
       </c>
       <c r="D86">
-        <v>34.524188701550202</v>
+        <v>198.774124341044</v>
       </c>
       <c r="E86">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F86">
+        <v>34.524188701550202</v>
+      </c>
+      <c r="G86">
         <v>29.6250303065633</v>
-      </c>
-      <c r="G86">
-        <v>198.774124341044</v>
       </c>
       <c r="H86">
         <v>358.95467238829201</v>
@@ -9614,20 +9761,23 @@
       <c r="A87">
         <v>313</v>
       </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
       <c r="C87">
         <v>7.8</v>
       </c>
       <c r="D87">
-        <v>33.789724164503703</v>
+        <v>122.839883491734</v>
       </c>
       <c r="E87">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F87">
+        <v>33.789724164503703</v>
+      </c>
+      <c r="G87">
         <v>28.224914354690998</v>
-      </c>
-      <c r="G87">
-        <v>122.839883491734</v>
       </c>
       <c r="H87">
         <v>250.104768632944</v>
@@ -9640,20 +9790,23 @@
       <c r="A88">
         <v>313</v>
       </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
       <c r="C88">
         <v>10.4</v>
       </c>
       <c r="D88">
-        <v>35.2417513576952</v>
+        <v>120.243885154962</v>
       </c>
       <c r="E88">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F88">
+        <v>35.2417513576952</v>
+      </c>
+      <c r="G88">
         <v>28.423812830745501</v>
-      </c>
-      <c r="G88">
-        <v>120.243885154962</v>
       </c>
       <c r="H88">
         <v>180.07530048273799</v>
@@ -9666,20 +9819,23 @@
       <c r="A89">
         <v>313</v>
       </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
       <c r="C89">
         <v>13</v>
       </c>
       <c r="D89">
-        <v>44.565811201106598</v>
+        <v>161.097739670962</v>
       </c>
       <c r="E89">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F89">
+        <v>44.565811201106598</v>
+      </c>
+      <c r="G89">
         <v>41.638759407920801</v>
-      </c>
-      <c r="G89">
-        <v>161.097739670962</v>
       </c>
       <c r="H89">
         <v>572.70005382180898</v>
@@ -9692,20 +9848,23 @@
       <c r="A90">
         <v>313</v>
       </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
       <c r="C90">
         <v>15.6</v>
       </c>
       <c r="D90">
-        <v>39.936790253357103</v>
+        <v>62.691518451988401</v>
       </c>
       <c r="E90">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F90">
+        <v>39.936790253357103</v>
+      </c>
+      <c r="G90">
         <v>38.203615568974001</v>
-      </c>
-      <c r="G90">
-        <v>62.691518451988401</v>
       </c>
       <c r="H90">
         <v>999.99999889273795</v>
@@ -9718,20 +9877,23 @@
       <c r="A91">
         <v>314</v>
       </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="D91">
-        <v>9.53065568407896</v>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
       <c r="E91">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F91">
+        <v>9.53065568407896</v>
+      </c>
+      <c r="G91">
         <v>9.7176568547227191</v>
-      </c>
-      <c r="G91" t="s">
-        <v>4</v>
       </c>
       <c r="H91">
         <v>5.4011444861846201</v>
@@ -9744,20 +9906,23 @@
       <c r="A92">
         <v>314</v>
       </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
       <c r="C92">
         <v>2.6</v>
       </c>
       <c r="D92">
-        <v>8.7877203852587495</v>
+        <v>312.86986610727399</v>
       </c>
       <c r="E92">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F92">
+        <v>8.7877203852587495</v>
+      </c>
+      <c r="G92">
         <v>8.5290447235166607</v>
-      </c>
-      <c r="G92">
-        <v>312.86986610727399</v>
       </c>
       <c r="H92">
         <v>35.239657922934903</v>
@@ -9770,20 +9935,23 @@
       <c r="A93">
         <v>314</v>
       </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
       <c r="C93">
         <v>5.2</v>
       </c>
       <c r="D93">
-        <v>7.5730999023199104</v>
+        <v>224.14044915956799</v>
       </c>
       <c r="E93">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F93">
+        <v>7.5730999023199104</v>
+      </c>
+      <c r="G93">
         <v>7.2662543152188501</v>
-      </c>
-      <c r="G93">
-        <v>224.14044915956799</v>
       </c>
       <c r="H93">
         <v>38.340323463086797</v>
@@ -9796,20 +9964,23 @@
       <c r="A94">
         <v>314</v>
       </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
       <c r="C94">
         <v>5.2</v>
       </c>
       <c r="D94">
-        <v>2.4879375568748601</v>
+        <v>347.61836114228697</v>
       </c>
       <c r="E94">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F94">
+        <v>2.4879375568748601</v>
+      </c>
+      <c r="G94">
         <v>1.6086699688008601</v>
-      </c>
-      <c r="G94">
-        <v>347.61836114228697</v>
       </c>
       <c r="H94">
         <v>110.209130304946</v>
@@ -9822,20 +9993,23 @@
       <c r="A95">
         <v>314</v>
       </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
       <c r="C95">
         <v>7.8</v>
       </c>
       <c r="D95">
-        <v>5.9298503810471903</v>
+        <v>319.81929676276002</v>
       </c>
       <c r="E95">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F95">
+        <v>5.9298503810471903</v>
+      </c>
+      <c r="G95">
         <v>5.34886555921452</v>
-      </c>
-      <c r="G95">
-        <v>319.81929676276002</v>
       </c>
       <c r="H95">
         <v>58.7120039578286</v>
@@ -9848,20 +10022,23 @@
       <c r="A96">
         <v>314</v>
       </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
       <c r="C96">
         <v>10.4</v>
       </c>
       <c r="D96">
-        <v>6.1114713289063802</v>
+        <v>218.951720893925</v>
       </c>
       <c r="E96">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F96">
+        <v>6.1114713289063802</v>
+      </c>
+      <c r="G96">
         <v>4.6270407343930202</v>
-      </c>
-      <c r="G96">
-        <v>218.951720893925</v>
       </c>
       <c r="H96">
         <v>184.993131095226</v>
@@ -9874,6 +10051,9 @@
       <c r="A97">
         <v>315</v>
       </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
       <c r="C97">
         <v>0</v>
       </c>
@@ -9900,20 +10080,23 @@
       <c r="A98">
         <v>315</v>
       </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
       <c r="C98">
         <v>2.6</v>
       </c>
-      <c r="D98">
-        <v>5.8141385471701597</v>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
       <c r="E98">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F98">
+        <v>5.8141385471701597</v>
+      </c>
+      <c r="G98">
         <v>4.9410154516042599</v>
-      </c>
-      <c r="G98" t="s">
-        <v>4</v>
       </c>
       <c r="H98">
         <v>112.266159558507</v>
@@ -9926,20 +10109,23 @@
       <c r="A99">
         <v>315</v>
       </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
       <c r="C99">
         <v>5.2</v>
       </c>
       <c r="D99">
-        <v>7.1392385640015599</v>
+        <v>375.92771106503102</v>
       </c>
       <c r="E99">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F99">
+        <v>7.1392385640015599</v>
+      </c>
+      <c r="G99">
         <v>6.6848949791383703</v>
-      </c>
-      <c r="G99">
-        <v>375.92771106503102</v>
       </c>
       <c r="H99">
         <v>72.166919276791205</v>
@@ -9952,20 +10138,23 @@
       <c r="A100">
         <v>315</v>
       </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
       <c r="C100">
         <v>7.8</v>
       </c>
       <c r="D100">
-        <v>15.0321311742146</v>
+        <v>353.67892546189699</v>
       </c>
       <c r="E100">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F100">
+        <v>15.0321311742146</v>
+      </c>
+      <c r="G100">
         <v>12.482534990754599</v>
-      </c>
-      <c r="G100">
-        <v>353.67892546189699</v>
       </c>
       <c r="H100">
         <v>121.038168981027</v>
@@ -9978,20 +10167,23 @@
       <c r="A101">
         <v>315</v>
       </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
       <c r="C101">
         <v>10.4</v>
       </c>
       <c r="D101">
-        <v>10.719456626062399</v>
+        <v>242.674001129445</v>
       </c>
       <c r="E101">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F101">
+        <v>10.719456626062399</v>
+      </c>
+      <c r="G101">
         <v>9.3999981014748499</v>
-      </c>
-      <c r="G101">
-        <v>242.674001129445</v>
       </c>
       <c r="H101">
         <v>128.732190850948</v>
@@ -10004,20 +10196,23 @@
       <c r="A102">
         <v>315</v>
       </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
       <c r="C102">
         <v>13</v>
       </c>
       <c r="D102">
-        <v>6.3126789276332502</v>
+        <v>228.011131022706</v>
       </c>
       <c r="E102">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F102">
+        <v>6.3126789276332502</v>
+      </c>
+      <c r="G102">
         <v>5.1450004221142001</v>
-      </c>
-      <c r="G102">
-        <v>228.011131022706</v>
       </c>
       <c r="H102">
         <v>78.682774434946893</v>
@@ -10030,20 +10225,23 @@
       <c r="A103">
         <v>315</v>
       </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
       <c r="C103">
         <v>15.6</v>
       </c>
       <c r="D103">
-        <v>8.3445692714628095</v>
+        <v>210.96064968015901</v>
       </c>
       <c r="E103">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F103">
+        <v>8.3445692714628095</v>
+      </c>
+      <c r="G103">
         <v>5.9341381471457098</v>
-      </c>
-      <c r="G103">
-        <v>210.96064968015901</v>
       </c>
       <c r="H103">
         <v>95.298591756255902</v>
@@ -10056,20 +10254,23 @@
       <c r="A104">
         <v>315</v>
       </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
       <c r="C104">
         <v>18.2</v>
       </c>
       <c r="D104">
-        <v>9.6581687928426607</v>
+        <v>223.99055056343499</v>
       </c>
       <c r="E104">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F104">
+        <v>9.6581687928426607</v>
+      </c>
+      <c r="G104">
         <v>9.0927521854698696</v>
-      </c>
-      <c r="G104">
-        <v>223.99055056343499</v>
       </c>
       <c r="H104">
         <v>12.5989348085808</v>
@@ -10082,20 +10283,23 @@
       <c r="A105">
         <v>136</v>
       </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
       <c r="C105">
         <v>0</v>
       </c>
-      <c r="D105">
-        <v>2.74137940281227</v>
+      <c r="D105" t="s">
+        <v>4</v>
       </c>
       <c r="E105">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F105">
+        <v>2.74137940281227</v>
+      </c>
+      <c r="G105">
         <v>2.0774020064803298</v>
-      </c>
-      <c r="G105" t="s">
-        <v>4</v>
       </c>
       <c r="H105">
         <v>999.99999998441206</v>
@@ -10108,20 +10312,23 @@
       <c r="A106">
         <v>136</v>
       </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
       <c r="C106">
         <v>2.6</v>
       </c>
       <c r="D106">
-        <v>4.6789456269001803</v>
+        <v>407.094009769808</v>
       </c>
       <c r="E106">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F106">
+        <v>4.6789456269001803</v>
+      </c>
+      <c r="G106">
         <v>4.1453562334334402</v>
-      </c>
-      <c r="G106">
-        <v>407.094009769808</v>
       </c>
       <c r="H106">
         <v>308.64100508369103</v>
@@ -10134,20 +10341,23 @@
       <c r="A107">
         <v>136</v>
       </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
       <c r="C107">
         <v>7.8</v>
       </c>
       <c r="D107">
-        <v>1.57635144656885</v>
+        <v>159.65168075094601</v>
       </c>
       <c r="E107">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F107">
+        <v>1.57635144656885</v>
+      </c>
+      <c r="G107">
         <v>1.5759274644943699</v>
-      </c>
-      <c r="G107">
-        <v>159.65168075094601</v>
       </c>
       <c r="H107">
         <v>5.3360638062932599</v>
@@ -10160,20 +10370,23 @@
       <c r="A108">
         <v>317</v>
       </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
       <c r="C108">
         <v>0</v>
       </c>
-      <c r="D108">
-        <v>4.5069277252268201</v>
+      <c r="D108" t="s">
+        <v>4</v>
       </c>
       <c r="E108">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F108">
+        <v>4.5069277252268201</v>
+      </c>
+      <c r="G108">
         <v>4.4595013549030504</v>
-      </c>
-      <c r="G108" t="s">
-        <v>4</v>
       </c>
       <c r="H108">
         <v>5.2850022810080901</v>
@@ -10186,20 +10399,23 @@
       <c r="A109">
         <v>317</v>
       </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
       <c r="C109">
         <v>2.6</v>
       </c>
       <c r="D109">
-        <v>8.99489799730285</v>
+        <v>441.079021752063</v>
       </c>
       <c r="E109">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F109">
+        <v>8.99489799730285</v>
+      </c>
+      <c r="G109">
         <v>9.1898754246819792</v>
-      </c>
-      <c r="G109">
-        <v>441.079021752063</v>
       </c>
       <c r="H109">
         <v>250.29824495128599</v>
@@ -10212,20 +10428,23 @@
       <c r="A110">
         <v>317</v>
       </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
       <c r="C110">
         <v>5.2</v>
       </c>
       <c r="D110">
-        <v>3.2323082118145501</v>
+        <v>381.67857623441603</v>
       </c>
       <c r="E110">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F110">
+        <v>3.2323082118145501</v>
+      </c>
+      <c r="G110">
         <v>3.26130043716373</v>
-      </c>
-      <c r="G110">
-        <v>381.67857623441603</v>
       </c>
       <c r="H110">
         <v>5.3265190737371597</v>
@@ -10238,20 +10457,23 @@
       <c r="A111">
         <v>318</v>
       </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
       <c r="C111">
         <v>0</v>
       </c>
-      <c r="D111">
-        <v>2.6477033980909801</v>
+      <c r="D111" t="s">
+        <v>4</v>
       </c>
       <c r="E111">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F111">
+        <v>2.6477033980909801</v>
+      </c>
+      <c r="G111">
         <v>2.6390590100525899</v>
-      </c>
-      <c r="G111" t="s">
-        <v>4</v>
       </c>
       <c r="H111">
         <v>5.2974442551252396</v>
@@ -10264,20 +10486,23 @@
       <c r="A112">
         <v>318</v>
       </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
       <c r="C112">
         <v>2.6</v>
       </c>
       <c r="D112">
-        <v>5.0587402701267097</v>
+        <v>387.440848436186</v>
       </c>
       <c r="E112">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F112">
+        <v>5.0587402701267097</v>
+      </c>
+      <c r="G112">
         <v>4.9292510668004601</v>
-      </c>
-      <c r="G112">
-        <v>387.440848436186</v>
       </c>
       <c r="H112">
         <v>25.507197118615899</v>
@@ -10290,20 +10515,23 @@
       <c r="A113">
         <v>318</v>
       </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
       <c r="C113">
         <v>5.2</v>
       </c>
       <c r="D113">
-        <v>2.6280662375802502</v>
+        <v>384.65343483759898</v>
       </c>
       <c r="E113">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F113">
+        <v>2.6280662375802502</v>
+      </c>
+      <c r="G113">
         <v>2.54993426030885</v>
-      </c>
-      <c r="G113">
-        <v>384.65343483759898</v>
       </c>
       <c r="H113">
         <v>5.27364038320255</v>
@@ -10316,20 +10544,23 @@
       <c r="A114">
         <v>318</v>
       </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
       <c r="C114">
         <v>7.8</v>
       </c>
       <c r="D114">
-        <v>2.2107441557414198</v>
+        <v>203.076663541307</v>
       </c>
       <c r="E114">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F114">
+        <v>2.2107441557414198</v>
+      </c>
+      <c r="G114">
         <v>2.1267640807280199</v>
-      </c>
-      <c r="G114">
-        <v>203.076663541307</v>
       </c>
       <c r="H114">
         <v>10.740512873201901</v>
@@ -10342,20 +10573,23 @@
       <c r="A115">
         <v>318</v>
       </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
       <c r="C115">
         <v>10.4</v>
       </c>
       <c r="D115">
-        <v>6.98333176930515</v>
+        <v>394.24814129958202</v>
       </c>
       <c r="E115">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F115">
+        <v>6.98333176930515</v>
+      </c>
+      <c r="G115">
         <v>7.0851755222530004</v>
-      </c>
-      <c r="G115">
-        <v>394.24814129958202</v>
       </c>
       <c r="H115">
         <v>5.3476319677660502</v>
@@ -10368,20 +10602,23 @@
       <c r="A116">
         <v>318</v>
       </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
       <c r="C116">
         <v>13</v>
       </c>
       <c r="D116">
-        <v>6.1847489041910197</v>
+        <v>356.41804801701898</v>
       </c>
       <c r="E116">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F116">
+        <v>6.1847489041910197</v>
+      </c>
+      <c r="G116">
         <v>6.2855150547351402</v>
-      </c>
-      <c r="G116">
-        <v>356.41804801701898</v>
       </c>
       <c r="H116">
         <v>5.3657944880239903</v>
@@ -10394,20 +10631,23 @@
       <c r="A117">
         <v>318</v>
       </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
       <c r="C117">
         <v>15.6</v>
       </c>
       <c r="D117">
-        <v>3.17774453662572</v>
+        <v>236.932212584052</v>
       </c>
       <c r="E117">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F117">
+        <v>3.17774453662572</v>
+      </c>
+      <c r="G117">
         <v>3.1336057852591401</v>
-      </c>
-      <c r="G117">
-        <v>236.932212584052</v>
       </c>
       <c r="H117">
         <v>5.0623548659007902</v>
@@ -10420,20 +10660,23 @@
       <c r="A118">
         <v>318</v>
       </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
       <c r="C118">
         <v>18.2</v>
       </c>
       <c r="D118">
-        <v>4.9634739771822503</v>
+        <v>312.51963138147198</v>
       </c>
       <c r="E118">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F118">
+        <v>4.9634739771822503</v>
+      </c>
+      <c r="G118">
         <v>4.6803182085175701</v>
-      </c>
-      <c r="G118">
-        <v>312.51963138147198</v>
       </c>
       <c r="H118">
         <v>67.689002346934998</v>
@@ -10446,20 +10689,23 @@
       <c r="A119">
         <v>318</v>
       </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
       <c r="C119">
         <v>20.8</v>
       </c>
       <c r="D119">
-        <v>9.5088927225602191</v>
+        <v>318.954309494867</v>
       </c>
       <c r="E119">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F119">
+        <v>9.5088927225602191</v>
+      </c>
+      <c r="G119">
         <v>9.48363747585657</v>
-      </c>
-      <c r="G119">
-        <v>318.954309494867</v>
       </c>
       <c r="H119">
         <v>5.2844868643947596</v>
@@ -10472,20 +10718,23 @@
       <c r="A120">
         <v>318</v>
       </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
       <c r="C120">
         <v>23.4</v>
       </c>
       <c r="D120">
-        <v>9.7058634880113903</v>
+        <v>230.17429452281499</v>
       </c>
       <c r="E120">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F120">
+        <v>9.7058634880113903</v>
+      </c>
+      <c r="G120">
         <v>9.3072531194703103</v>
-      </c>
-      <c r="G120">
-        <v>230.17429452281499</v>
       </c>
       <c r="H120">
         <v>48.417004478439402</v>
@@ -10498,20 +10747,23 @@
       <c r="A121">
         <v>318</v>
       </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
       <c r="C121">
         <v>26</v>
       </c>
       <c r="D121">
-        <v>16.360824058584001</v>
+        <v>245.21969817169199</v>
       </c>
       <c r="E121">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F121">
+        <v>16.360824058584001</v>
+      </c>
+      <c r="G121">
         <v>16.828510187622999</v>
-      </c>
-      <c r="G121">
-        <v>245.21969817169199</v>
       </c>
       <c r="H121">
         <v>201.38903625208701</v>
@@ -10524,20 +10776,23 @@
       <c r="A122">
         <v>318</v>
       </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
       <c r="C122">
         <v>28.6</v>
       </c>
       <c r="D122">
-        <v>6.2472762342724097</v>
+        <v>196.174033128068</v>
       </c>
       <c r="E122">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F122">
+        <v>6.2472762342724097</v>
+      </c>
+      <c r="G122">
         <v>5.8717707132164003</v>
-      </c>
-      <c r="G122">
-        <v>196.174033128068</v>
       </c>
       <c r="H122">
         <v>89.030419188251201</v>
@@ -10550,20 +10805,23 @@
       <c r="A123">
         <v>318</v>
       </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
       <c r="C123">
         <v>31.2</v>
       </c>
       <c r="D123">
-        <v>7.73619845963999</v>
+        <v>250.957807463758</v>
       </c>
       <c r="E123">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F123">
+        <v>7.73619845963999</v>
+      </c>
+      <c r="G123">
         <v>7.8218789848398202</v>
-      </c>
-      <c r="G123">
-        <v>250.957807463758</v>
       </c>
       <c r="H123">
         <v>5.35524256920539</v>
@@ -10576,20 +10834,23 @@
       <c r="A124">
         <v>318</v>
       </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
       <c r="C124">
         <v>33.799999999999997</v>
       </c>
       <c r="D124">
-        <v>13.8950872217394</v>
+        <v>232.579317136573</v>
       </c>
       <c r="E124">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F124">
+        <v>13.8950872217394</v>
+      </c>
+      <c r="G124">
         <v>13.6016729178224</v>
-      </c>
-      <c r="G124">
-        <v>232.579317136573</v>
       </c>
       <c r="H124">
         <v>92.177631034758903</v>
@@ -10602,20 +10863,23 @@
       <c r="A125">
         <v>318</v>
       </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
       <c r="C125">
         <v>36.4</v>
       </c>
       <c r="D125">
-        <v>12.843734778553999</v>
+        <v>187.82963000302499</v>
       </c>
       <c r="E125">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F125">
+        <v>12.843734778553999</v>
+      </c>
+      <c r="G125">
         <v>12.4724115927357</v>
-      </c>
-      <c r="G125">
-        <v>187.82963000302499</v>
       </c>
       <c r="H125">
         <v>60.296808193114799</v>
@@ -10628,20 +10892,23 @@
       <c r="A126">
         <v>318</v>
       </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
       <c r="C126">
         <v>39</v>
       </c>
       <c r="D126">
-        <v>7.5385051529512896</v>
+        <v>185.65322204680999</v>
       </c>
       <c r="E126">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F126">
+        <v>7.5385051529512896</v>
+      </c>
+      <c r="G126">
         <v>7.47660489429766</v>
-      </c>
-      <c r="G126">
-        <v>185.65322204680999</v>
       </c>
       <c r="H126">
         <v>19.087241504653701</v>
@@ -10654,20 +10921,23 @@
       <c r="A127">
         <v>319</v>
       </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
       <c r="C127">
         <v>0</v>
       </c>
-      <c r="D127">
-        <v>1.52279496663619</v>
+      <c r="D127" t="s">
+        <v>4</v>
       </c>
       <c r="E127">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F127">
+        <v>1.52279496663619</v>
+      </c>
+      <c r="G127">
         <v>1.50414633748542</v>
-      </c>
-      <c r="G127" t="s">
-        <v>4</v>
       </c>
       <c r="H127">
         <v>5.2824990971300201</v>
@@ -10680,20 +10950,23 @@
       <c r="A128">
         <v>319</v>
       </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
       <c r="C128">
         <v>2.6</v>
       </c>
       <c r="D128">
-        <v>9.3156632983006293</v>
+        <v>603.45063608516205</v>
       </c>
       <c r="E128">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F128">
+        <v>9.3156632983006293</v>
+      </c>
+      <c r="G128">
         <v>5.6638768217780102</v>
-      </c>
-      <c r="G128">
-        <v>603.45063608516205</v>
       </c>
       <c r="H128">
         <v>342.47855906815897</v>
@@ -10706,20 +10979,23 @@
       <c r="A129">
         <v>320</v>
       </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
       <c r="C129">
         <v>0</v>
       </c>
-      <c r="D129">
-        <v>1.74108161218955</v>
+      <c r="D129" t="s">
+        <v>4</v>
       </c>
       <c r="E129" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F129">
+        <v>1.74108161218955</v>
+      </c>
+      <c r="G129">
         <v>1.2772996134880501</v>
-      </c>
-      <c r="G129" t="s">
-        <v>4</v>
       </c>
       <c r="H129">
         <v>115.749242440169</v>
@@ -10732,20 +11008,23 @@
       <c r="A130">
         <v>320</v>
       </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
       <c r="C130">
         <v>2.6</v>
       </c>
       <c r="D130">
-        <v>4.4620062786184604</v>
+        <v>435.05719971694202</v>
       </c>
       <c r="E130" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F130">
+        <v>4.4620062786184604</v>
+      </c>
+      <c r="G130">
         <v>4.09189447252266</v>
-      </c>
-      <c r="G130">
-        <v>435.05719971694202</v>
       </c>
       <c r="H130">
         <v>104.20688863770999</v>
@@ -10758,20 +11037,23 @@
       <c r="A131">
         <v>320</v>
       </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
       <c r="C131">
         <v>5.2</v>
       </c>
       <c r="D131">
-        <v>3.3765528114946499</v>
+        <v>156.910459675364</v>
       </c>
       <c r="E131" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F131">
+        <v>3.3765528114946499</v>
+      </c>
+      <c r="G131">
         <v>3.37616034717206</v>
-      </c>
-      <c r="G131">
-        <v>156.910459675364</v>
       </c>
       <c r="H131">
         <v>5.3456816012983897</v>
@@ -10784,20 +11066,23 @@
       <c r="A132">
         <v>321</v>
       </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
       <c r="C132">
         <v>0</v>
       </c>
-      <c r="D132">
-        <v>1.42396299605801</v>
+      <c r="D132" t="s">
+        <v>4</v>
       </c>
       <c r="E132" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F132">
+        <v>1.42396299605801</v>
+      </c>
+      <c r="G132">
         <v>1.42777166973892</v>
-      </c>
-      <c r="G132" t="s">
-        <v>4</v>
       </c>
       <c r="H132">
         <v>5.3502008048101901</v>
@@ -10810,20 +11095,23 @@
       <c r="A133">
         <v>321</v>
       </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
       <c r="C133">
         <v>2.6</v>
       </c>
       <c r="D133">
-        <v>3.1897695105111401</v>
+        <v>568.43711210466802</v>
       </c>
       <c r="E133" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F133">
+        <v>3.1897695105111401</v>
+      </c>
+      <c r="G133">
         <v>2.8647468063142001</v>
-      </c>
-      <c r="G133">
-        <v>568.43711210466802</v>
       </c>
       <c r="H133">
         <v>304.07430625926401</v>
@@ -10836,20 +11124,23 @@
       <c r="A134">
         <v>321</v>
       </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
       <c r="C134">
         <v>5.2</v>
       </c>
       <c r="D134">
-        <v>5.4483071180210896</v>
+        <v>484.18198201676398</v>
       </c>
       <c r="E134" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F134">
+        <v>5.4483071180210896</v>
+      </c>
+      <c r="G134">
         <v>4.9933540227453204</v>
-      </c>
-      <c r="G134">
-        <v>484.18198201676398</v>
       </c>
       <c r="H134">
         <v>162.815958350329</v>
@@ -10862,20 +11153,23 @@
       <c r="A135">
         <v>322</v>
       </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
       <c r="C135">
         <v>0</v>
       </c>
-      <c r="D135">
-        <v>2.0296375816676102</v>
+      <c r="D135" t="s">
+        <v>4</v>
       </c>
       <c r="E135" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F135">
+        <v>2.0296375816676102</v>
+      </c>
+      <c r="G135">
         <v>0.350433451728136</v>
-      </c>
-      <c r="G135" t="s">
-        <v>4</v>
       </c>
       <c r="H135">
         <v>5.01325696533406</v>
@@ -10888,20 +11182,23 @@
       <c r="A136">
         <v>322</v>
       </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
       <c r="C136">
         <v>2.6</v>
       </c>
       <c r="D136">
-        <v>3.2934405865490999</v>
+        <v>373.40735213898103</v>
       </c>
       <c r="E136" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F136">
+        <v>3.2934405865490999</v>
+      </c>
+      <c r="G136">
         <v>3.30905033950296</v>
-      </c>
-      <c r="G136">
-        <v>373.40735213898103</v>
       </c>
       <c r="H136">
         <v>5.3528689844670199</v>
@@ -10914,20 +11211,23 @@
       <c r="A137">
         <v>322</v>
       </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
       <c r="C137">
         <v>5.2</v>
       </c>
       <c r="D137">
-        <v>5.1107097265153199</v>
+        <v>420.02628122023901</v>
       </c>
       <c r="E137" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F137">
+        <v>5.1107097265153199</v>
+      </c>
+      <c r="G137">
         <v>4.7429885731578301</v>
-      </c>
-      <c r="G137">
-        <v>420.02628122023901</v>
       </c>
       <c r="H137">
         <v>122.58313694780099</v>
@@ -10940,20 +11240,23 @@
       <c r="A138">
         <v>323</v>
       </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
       <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138">
-        <v>10.937204574392201</v>
+      <c r="D138" t="s">
+        <v>4</v>
       </c>
       <c r="E138" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F138">
+        <v>10.937204574392201</v>
+      </c>
+      <c r="G138">
         <v>10.8829338104981</v>
-      </c>
-      <c r="G138" t="s">
-        <v>4</v>
       </c>
       <c r="H138">
         <v>5.2898562174220602</v>
@@ -10966,20 +11269,23 @@
       <c r="A139">
         <v>323</v>
       </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
       <c r="C139">
         <v>2.6</v>
       </c>
       <c r="D139">
-        <v>13.695033585529201</v>
+        <v>176.525120101277</v>
       </c>
       <c r="E139" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F139">
+        <v>13.695033585529201</v>
+      </c>
+      <c r="G139">
         <v>13.6426059881583</v>
-      </c>
-      <c r="G139">
-        <v>176.525120101277</v>
       </c>
       <c r="H139">
         <v>5.3960414066983002</v>
@@ -10992,20 +11298,23 @@
       <c r="A140">
         <v>323</v>
       </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
       <c r="C140">
         <v>5.2</v>
       </c>
       <c r="D140">
-        <v>12.0956284073647</v>
+        <v>165.635500973739</v>
       </c>
       <c r="E140" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F140">
+        <v>12.0956284073647</v>
+      </c>
+      <c r="G140">
         <v>11.9544358024551</v>
-      </c>
-      <c r="G140">
-        <v>165.635500973739</v>
       </c>
       <c r="H140">
         <v>5.36667467531821</v>
@@ -11018,20 +11327,23 @@
       <c r="A141">
         <v>324</v>
       </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
       <c r="C141">
         <v>0</v>
       </c>
-      <c r="D141">
-        <v>2.0696934021167701</v>
+      <c r="D141" t="s">
+        <v>4</v>
       </c>
       <c r="E141" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F141">
+        <v>2.0696934021167701</v>
+      </c>
+      <c r="G141">
         <v>1.87487406508104</v>
-      </c>
-      <c r="G141" t="s">
-        <v>4</v>
       </c>
       <c r="H141">
         <v>46.992936205034503</v>
@@ -11044,20 +11356,23 @@
       <c r="A142">
         <v>324</v>
       </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
       <c r="C142">
         <v>2.6</v>
       </c>
       <c r="D142">
-        <v>4.1421881514946302</v>
+        <v>444.377025269032</v>
       </c>
       <c r="E142" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F142">
+        <v>4.1421881514946302</v>
+      </c>
+      <c r="G142">
         <v>3.5765875142943999</v>
-      </c>
-      <c r="G142">
-        <v>444.377025269032</v>
       </c>
       <c r="H142">
         <v>127.030129974194</v>
@@ -11070,20 +11385,23 @@
       <c r="A143">
         <v>324</v>
       </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
       <c r="C143">
         <v>5.2</v>
       </c>
       <c r="D143">
-        <v>4.0976840578094098</v>
+        <v>381.32083243361802</v>
       </c>
       <c r="E143" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F143">
+        <v>4.0976840578094098</v>
+      </c>
+      <c r="G143">
         <v>4.0066768605436103</v>
-      </c>
-      <c r="G143">
-        <v>381.32083243361802</v>
       </c>
       <c r="H143">
         <v>22.221619919384</v>
@@ -11096,20 +11414,23 @@
       <c r="A144">
         <v>324</v>
       </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
       <c r="C144">
         <v>7.8</v>
       </c>
       <c r="D144">
-        <v>6.1204801133388598</v>
+        <v>355.46444557685902</v>
       </c>
       <c r="E144" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F144">
+        <v>6.1204801133388598</v>
+      </c>
+      <c r="G144">
         <v>6.0101967417156503</v>
-      </c>
-      <c r="G144">
-        <v>355.46444557685902</v>
       </c>
       <c r="H144">
         <v>5.3280545348448101</v>
@@ -11122,20 +11443,23 @@
       <c r="A145">
         <v>324</v>
       </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
       <c r="C145">
         <v>10.4</v>
       </c>
       <c r="D145">
-        <v>7.6040273332083501</v>
+        <v>290.37193303960697</v>
       </c>
       <c r="E145" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F145">
+        <v>7.6040273332083501</v>
+      </c>
+      <c r="G145">
         <v>7.2883172738469604</v>
-      </c>
-      <c r="G145">
-        <v>290.37193303960697</v>
       </c>
       <c r="H145">
         <v>145.45255170616201</v>
@@ -11148,20 +11472,23 @@
       <c r="A146">
         <v>324</v>
       </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
       <c r="C146">
         <v>13</v>
       </c>
       <c r="D146">
-        <v>8.4786105397619096</v>
+        <v>354.960316634967</v>
       </c>
       <c r="E146" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F146">
+        <v>8.4786105397619096</v>
+      </c>
+      <c r="G146">
         <v>7.2390261248448198</v>
-      </c>
-      <c r="G146">
-        <v>354.960316634967</v>
       </c>
       <c r="H146">
         <v>163.68302361999301</v>
@@ -11174,20 +11501,23 @@
       <c r="A147">
         <v>324</v>
       </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
       <c r="C147">
         <v>15.6</v>
       </c>
       <c r="D147">
-        <v>15.3776031718587</v>
+        <v>239.03572336273299</v>
       </c>
       <c r="E147" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F147">
+        <v>15.3776031718587</v>
+      </c>
+      <c r="G147">
         <v>10.918037581388701</v>
-      </c>
-      <c r="G147">
-        <v>239.03572336273299</v>
       </c>
       <c r="H147">
         <v>155.23025753706301</v>
@@ -11200,6 +11530,9 @@
       <c r="A148">
         <v>324</v>
       </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
       <c r="C148">
         <v>18.2</v>
       </c>
@@ -11226,6 +11559,9 @@
       <c r="A149">
         <v>324</v>
       </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
       <c r="C149">
         <v>20.8</v>
       </c>
@@ -11252,6 +11588,9 @@
       <c r="A150">
         <v>324</v>
       </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
       <c r="C150">
         <v>23.4</v>
       </c>
@@ -11278,6 +11617,9 @@
       <c r="A151">
         <v>324</v>
       </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
       <c r="C151">
         <v>26</v>
       </c>
@@ -11304,6 +11646,9 @@
       <c r="A152">
         <v>324</v>
       </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
       <c r="C152">
         <v>28.6</v>
       </c>
@@ -11330,20 +11675,23 @@
       <c r="A153">
         <v>325</v>
       </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
       <c r="C153">
         <v>0</v>
       </c>
-      <c r="D153">
-        <v>1.8121766415890199</v>
+      <c r="D153" t="s">
+        <v>4</v>
       </c>
       <c r="E153" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F153">
+        <v>1.8121766415890199</v>
+      </c>
+      <c r="G153">
         <v>1.77769337152504</v>
-      </c>
-      <c r="G153" t="s">
-        <v>4</v>
       </c>
       <c r="H153">
         <v>5.2691239200103297</v>
@@ -11356,20 +11704,23 @@
       <c r="A154">
         <v>325</v>
       </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
       <c r="C154">
         <v>2.6</v>
       </c>
       <c r="D154">
-        <v>4.2006825276705397</v>
+        <v>413.84779595458599</v>
       </c>
       <c r="E154" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F154">
+        <v>4.2006825276705397</v>
+      </c>
+      <c r="G154">
         <v>4.0136092374241397</v>
-      </c>
-      <c r="G154">
-        <v>413.84779595458599</v>
       </c>
       <c r="H154">
         <v>5.2251145523085096</v>
@@ -11382,20 +11733,23 @@
       <c r="A155">
         <v>325</v>
       </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
       <c r="C155">
         <v>5.2</v>
       </c>
       <c r="D155">
-        <v>9.0140857247388002</v>
+        <v>271.86466503737103</v>
       </c>
       <c r="E155" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F155">
+        <v>9.0140857247388002</v>
+      </c>
+      <c r="G155">
         <v>7.3753424008259403</v>
-      </c>
-      <c r="G155">
-        <v>271.86466503737103</v>
       </c>
       <c r="H155">
         <v>69.897364424740601</v>
@@ -11408,20 +11762,23 @@
       <c r="A156">
         <v>325</v>
       </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
       <c r="C156">
         <v>7.8</v>
       </c>
       <c r="D156">
-        <v>32.840182459613899</v>
+        <v>166.06038836567899</v>
       </c>
       <c r="E156" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F156">
+        <v>32.840182459613899</v>
+      </c>
+      <c r="G156">
         <v>30.554462085079798</v>
-      </c>
-      <c r="G156">
-        <v>166.06038836567899</v>
       </c>
       <c r="H156">
         <v>522.218554110132</v>
@@ -11434,20 +11791,23 @@
       <c r="A157">
         <v>326</v>
       </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
       <c r="C157">
         <v>0</v>
       </c>
-      <c r="D157">
-        <v>3.4611598538574699</v>
+      <c r="D157" t="s">
+        <v>4</v>
       </c>
       <c r="E157" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F157">
+        <v>3.4611598538574699</v>
+      </c>
+      <c r="G157">
         <v>2.9821481086018</v>
-      </c>
-      <c r="G157" t="s">
-        <v>4</v>
       </c>
       <c r="H157">
         <v>115.97708233612801</v>
@@ -11460,20 +11820,23 @@
       <c r="A158">
         <v>326</v>
       </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
       <c r="C158">
         <v>2.6</v>
       </c>
       <c r="D158">
-        <v>6.6163076001888896</v>
+        <v>183.71883761004801</v>
       </c>
       <c r="E158" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F158">
+        <v>6.6163076001888896</v>
+      </c>
+      <c r="G158">
         <v>6.3928463257865102</v>
-      </c>
-      <c r="G158">
-        <v>183.71883761004801</v>
       </c>
       <c r="H158">
         <v>77.4638617419903</v>
@@ -11486,20 +11849,23 @@
       <c r="A159">
         <v>326</v>
       </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
       <c r="C159">
         <v>5.2</v>
       </c>
       <c r="D159">
-        <v>4.04746739258752</v>
+        <v>79.457581270269699</v>
       </c>
       <c r="E159" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F159">
+        <v>4.04746739258752</v>
+      </c>
+      <c r="G159">
         <v>3.8676982920771299</v>
-      </c>
-      <c r="G159">
-        <v>79.457581270269699</v>
       </c>
       <c r="H159">
         <v>335.38047528903797</v>
@@ -11512,20 +11878,23 @@
       <c r="A160">
         <v>327</v>
       </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="D160">
-        <v>1.3125535195212299</v>
+      <c r="D160" t="s">
+        <v>4</v>
       </c>
       <c r="E160" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F160">
+        <v>1.3125535195212299</v>
+      </c>
+      <c r="G160">
         <v>1.24126510384109</v>
-      </c>
-      <c r="G160" t="s">
-        <v>4</v>
       </c>
       <c r="H160">
         <v>5.2247628293912696</v>
@@ -11538,20 +11907,23 @@
       <c r="A161">
         <v>327</v>
       </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
       <c r="C161">
         <v>2.6</v>
       </c>
       <c r="D161">
-        <v>3.1732154872630001</v>
+        <v>411.61285447113897</v>
       </c>
       <c r="E161" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F161">
+        <v>3.1732154872630001</v>
+      </c>
+      <c r="G161">
         <v>2.6499421633817102</v>
-      </c>
-      <c r="G161">
-        <v>411.61285447113897</v>
       </c>
       <c r="H161">
         <v>246.53931412001501</v>
@@ -11564,20 +11936,23 @@
       <c r="A162">
         <v>327</v>
       </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
       <c r="C162">
         <v>5.2</v>
       </c>
       <c r="D162">
-        <v>1.3265608918181</v>
+        <v>184.90386090161201</v>
       </c>
       <c r="E162" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F162">
+        <v>1.3265608918181</v>
+      </c>
+      <c r="G162">
         <v>0.71624809930770195</v>
-      </c>
-      <c r="G162">
-        <v>184.90386090161201</v>
       </c>
       <c r="H162">
         <v>168.51210001218899</v>
@@ -11590,20 +11965,23 @@
       <c r="A163">
         <v>327</v>
       </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
       <c r="C163">
         <v>7.8</v>
       </c>
       <c r="D163">
-        <v>2.61531747977339</v>
+        <v>346.05099367437703</v>
       </c>
       <c r="E163" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F163">
+        <v>2.61531747977339</v>
+      </c>
+      <c r="G163">
         <v>1.28299218240484</v>
-      </c>
-      <c r="G163">
-        <v>346.05099367437703</v>
       </c>
       <c r="H163">
         <v>301.977672067583</v>
@@ -11616,20 +11994,23 @@
       <c r="A164">
         <v>327</v>
       </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
       <c r="C164">
         <v>10.4</v>
       </c>
       <c r="D164">
-        <v>3.7696604258431101</v>
+        <v>305.691847913272</v>
       </c>
       <c r="E164" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F164">
+        <v>3.7696604258431101</v>
+      </c>
+      <c r="G164">
         <v>3.77681278323786</v>
-      </c>
-      <c r="G164">
-        <v>305.691847913272</v>
       </c>
       <c r="H164">
         <v>5.3053218907240796</v>
@@ -11642,20 +12023,23 @@
       <c r="A165">
         <v>327</v>
       </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
       <c r="C165">
         <v>13</v>
       </c>
       <c r="D165">
-        <v>9.6121369056395398</v>
+        <v>150.00713781622201</v>
       </c>
       <c r="E165" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F165">
+        <v>9.6121369056395398</v>
+      </c>
+      <c r="G165">
         <v>8.0498260786417504</v>
-      </c>
-      <c r="G165">
-        <v>150.00713781622201</v>
       </c>
       <c r="H165">
         <v>244.62976763205501</v>
@@ -11668,20 +12052,23 @@
       <c r="A166">
         <v>327</v>
       </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
       <c r="C166">
         <v>15.6</v>
       </c>
       <c r="D166">
-        <v>11.0807971909815</v>
+        <v>141.19361561032599</v>
       </c>
       <c r="E166" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F166">
+        <v>11.0807971909815</v>
+      </c>
+      <c r="G166">
         <v>10.3725304764474</v>
-      </c>
-      <c r="G166">
-        <v>141.19361561032599</v>
       </c>
       <c r="H166">
         <v>342.858884605669</v>
@@ -11694,20 +12081,23 @@
       <c r="A167">
         <v>328</v>
       </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
       <c r="C167">
         <v>0</v>
       </c>
-      <c r="D167">
-        <v>1.55702896063675</v>
+      <c r="D167" t="s">
+        <v>4</v>
       </c>
       <c r="E167" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F167">
+        <v>1.55702896063675</v>
+      </c>
+      <c r="G167">
         <v>1.49863675737016</v>
-      </c>
-      <c r="G167" t="s">
-        <v>4</v>
       </c>
       <c r="H167">
         <v>5.23020131927482</v>
@@ -11720,20 +12110,23 @@
       <c r="A168">
         <v>328</v>
       </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
       <c r="C168">
         <v>2.6</v>
       </c>
       <c r="D168">
-        <v>5.2974778487666603</v>
+        <v>401.18507343260598</v>
       </c>
       <c r="E168" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F168">
+        <v>5.2974778487666603</v>
+      </c>
+      <c r="G168">
         <v>4.9781805963597003</v>
-      </c>
-      <c r="G168">
-        <v>401.18507343260598</v>
       </c>
       <c r="H168">
         <v>34.315097128858397</v>
@@ -11746,20 +12139,23 @@
       <c r="A169">
         <v>328</v>
       </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
       <c r="C169">
         <v>5.2</v>
       </c>
       <c r="D169">
-        <v>8.6098125648422901</v>
+        <v>265.18516379177203</v>
       </c>
       <c r="E169" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F169">
+        <v>8.6098125648422901</v>
+      </c>
+      <c r="G169">
         <v>8.0264495904260507</v>
-      </c>
-      <c r="G169">
-        <v>265.18516379177203</v>
       </c>
       <c r="H169">
         <v>145.53159478749299</v>
@@ -11772,20 +12168,23 @@
       <c r="A170">
         <v>328</v>
       </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
       <c r="C170">
         <v>7.8</v>
       </c>
       <c r="D170">
-        <v>6.8033096672856797</v>
+        <v>193.26822965158999</v>
       </c>
       <c r="E170" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F170">
+        <v>6.8033096672856797</v>
+      </c>
+      <c r="G170">
         <v>5.9492581943897198</v>
-      </c>
-      <c r="G170">
-        <v>193.26822965158999</v>
       </c>
       <c r="H170">
         <v>999.99999983065197</v>
@@ -11798,20 +12197,23 @@
       <c r="A171">
         <v>329</v>
       </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
       <c r="C171">
         <v>0</v>
       </c>
-      <c r="D171">
-        <v>1.4700191234617299</v>
+      <c r="D171" t="s">
+        <v>4</v>
       </c>
       <c r="E171" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F171">
+        <v>1.4700191234617299</v>
+      </c>
+      <c r="G171">
         <v>1.3553915589581</v>
-      </c>
-      <c r="G171" t="s">
-        <v>4</v>
       </c>
       <c r="H171">
         <v>5.2100798186308097</v>
@@ -11824,20 +12226,23 @@
       <c r="A172">
         <v>329</v>
       </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
       <c r="C172">
         <v>2.6</v>
       </c>
       <c r="D172">
-        <v>0.77178264995532497</v>
+        <v>471.97026378993797</v>
       </c>
       <c r="E172" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F172">
+        <v>0.77178264995532497</v>
+      </c>
+      <c r="G172">
         <v>0.43840283142421699</v>
-      </c>
-      <c r="G172">
-        <v>471.97026378993797</v>
       </c>
       <c r="H172">
         <v>4.7863665751413702</v>
@@ -11850,20 +12255,23 @@
       <c r="A173">
         <v>329</v>
       </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
       <c r="C173">
         <v>5.2</v>
       </c>
       <c r="D173">
-        <v>1.9427549432496301</v>
+        <v>439.49779184992502</v>
       </c>
       <c r="E173" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F173">
+        <v>1.9427549432496301</v>
+      </c>
+      <c r="G173">
         <v>1.5620603091384599</v>
-      </c>
-      <c r="G173">
-        <v>439.49779184992502</v>
       </c>
       <c r="H173">
         <v>123.242997022078</v>
@@ -11876,20 +12284,23 @@
       <c r="A174">
         <v>329</v>
       </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
       <c r="C174">
         <v>7.8</v>
       </c>
       <c r="D174">
-        <v>1.48287061739242</v>
+        <v>211.66044129368501</v>
       </c>
       <c r="E174" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F174">
+        <v>1.48287061739242</v>
+      </c>
+      <c r="G174">
         <v>1.38503122538126</v>
-      </c>
-      <c r="G174">
-        <v>211.66044129368501</v>
       </c>
       <c r="H174">
         <v>5.2213405277856104</v>
@@ -11902,20 +12313,23 @@
       <c r="A175">
         <v>329</v>
       </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
       <c r="C175">
         <v>10.4</v>
       </c>
       <c r="D175">
-        <v>2.6756011950026002</v>
+        <v>187.87481776918901</v>
       </c>
       <c r="E175" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F175">
+        <v>2.6756011950026002</v>
+      </c>
+      <c r="G175">
         <v>1.8045616144914001</v>
-      </c>
-      <c r="G175">
-        <v>187.87481776918901</v>
       </c>
       <c r="H175">
         <v>207.29931915528201</v>
@@ -11928,20 +12342,23 @@
       <c r="A176">
         <v>329</v>
       </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
       <c r="C176">
         <v>13</v>
       </c>
       <c r="D176">
-        <v>2.6361153432169</v>
+        <v>337.59675079592103</v>
       </c>
       <c r="E176" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F176">
+        <v>2.6361153432169</v>
+      </c>
+      <c r="G176">
         <v>2.4972708094907898</v>
-      </c>
-      <c r="G176">
-        <v>337.59675079592103</v>
       </c>
       <c r="H176">
         <v>21.801502873477101</v>
@@ -11954,20 +12371,23 @@
       <c r="A177">
         <v>329</v>
       </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
       <c r="C177">
         <v>15.6</v>
       </c>
       <c r="D177">
-        <v>5.2427703650079902</v>
+        <v>357.87025951091499</v>
       </c>
       <c r="E177" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F177">
+        <v>5.2427703650079902</v>
+      </c>
+      <c r="G177">
         <v>4.3476836076921597</v>
-      </c>
-      <c r="G177">
-        <v>357.87025951091499</v>
       </c>
       <c r="H177">
         <v>281.81337283645701</v>
@@ -11980,20 +12400,23 @@
       <c r="A178">
         <v>329</v>
       </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
       <c r="C178">
         <v>18.2</v>
       </c>
       <c r="D178">
-        <v>3.2235635538623999</v>
+        <v>220.477906550363</v>
       </c>
       <c r="E178" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F178">
+        <v>3.2235635538623999</v>
+      </c>
+      <c r="G178">
         <v>2.5153269159349998</v>
-      </c>
-      <c r="G178">
-        <v>220.477906550363</v>
       </c>
       <c r="H178">
         <v>183.338942624233</v>
@@ -12006,20 +12429,23 @@
       <c r="A179">
         <v>329</v>
       </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
       <c r="C179">
         <v>20.8</v>
       </c>
       <c r="D179">
-        <v>3.38126549874324</v>
+        <v>263.10148695353701</v>
       </c>
       <c r="E179" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F179">
+        <v>3.38126549874324</v>
+      </c>
+      <c r="G179">
         <v>1.66954248264428</v>
-      </c>
-      <c r="G179">
-        <v>263.10148695353701</v>
       </c>
       <c r="H179">
         <v>30.563352498931199</v>
@@ -12032,20 +12458,23 @@
       <c r="A180">
         <v>329</v>
       </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
       <c r="C180">
         <v>23.4</v>
       </c>
       <c r="D180">
-        <v>6.5176930135696498</v>
+        <v>321.44324743427097</v>
       </c>
       <c r="E180" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F180">
+        <v>6.5176930135696498</v>
+      </c>
+      <c r="G180">
         <v>3.3640683203479198</v>
-      </c>
-      <c r="G180">
-        <v>321.44324743427097</v>
       </c>
       <c r="H180">
         <v>999.99999992718904</v>
@@ -12058,20 +12487,23 @@
       <c r="A181">
         <v>329</v>
       </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
       <c r="C181">
         <v>26</v>
       </c>
       <c r="D181">
-        <v>5.3855221603123002</v>
+        <v>162.87205033108901</v>
       </c>
       <c r="E181" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F181">
+        <v>5.3855221603123002</v>
+      </c>
+      <c r="G181">
         <v>4.44257457956813</v>
-      </c>
-      <c r="G181">
-        <v>162.87205033108901</v>
       </c>
       <c r="H181">
         <v>125.540189747897</v>
@@ -12084,20 +12516,23 @@
       <c r="A182">
         <v>329</v>
       </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
       <c r="C182">
         <v>28.6</v>
       </c>
       <c r="D182">
-        <v>7.901683640691</v>
+        <v>319.12179327567401</v>
       </c>
       <c r="E182" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F182">
+        <v>7.901683640691</v>
+      </c>
+      <c r="G182">
         <v>7.1978468195833898</v>
-      </c>
-      <c r="G182">
-        <v>319.12179327567401</v>
       </c>
       <c r="H182">
         <v>260.62915231781602</v>
@@ -12110,20 +12545,23 @@
       <c r="A183">
         <v>329</v>
       </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
       <c r="C183">
         <v>31.2</v>
       </c>
       <c r="D183">
-        <v>3.6982622176545501</v>
+        <v>142.33854727710499</v>
       </c>
       <c r="E183" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F183">
+        <v>3.6982622176545501</v>
+      </c>
+      <c r="G183">
         <v>2.8555302997065999</v>
-      </c>
-      <c r="G183">
-        <v>142.33854727710499</v>
       </c>
       <c r="H183">
         <v>168.60777251314099</v>
@@ -12136,20 +12574,23 @@
       <c r="A184">
         <v>329</v>
       </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
       <c r="C184">
         <v>33.799999999999997</v>
       </c>
       <c r="D184">
-        <v>7.8654798132835797</v>
+        <v>186.28829505706099</v>
       </c>
       <c r="E184" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F184">
+        <v>7.8654798132835797</v>
+      </c>
+      <c r="G184">
         <v>7.3503013557711103</v>
-      </c>
-      <c r="G184">
-        <v>186.28829505706099</v>
       </c>
       <c r="H184">
         <v>75.520994323578705</v>
@@ -12162,20 +12603,23 @@
       <c r="A185">
         <v>330</v>
       </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
       <c r="C185">
         <v>0</v>
       </c>
-      <c r="D185">
-        <v>1.64840024168981</v>
+      <c r="D185" t="s">
+        <v>4</v>
       </c>
       <c r="E185" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F185">
+        <v>1.64840024168981</v>
+      </c>
+      <c r="G185">
         <v>1.29120376097783</v>
-      </c>
-      <c r="G185" t="s">
-        <v>4</v>
       </c>
       <c r="H185">
         <v>78.260625320123594</v>
@@ -12188,20 +12632,23 @@
       <c r="A186">
         <v>330</v>
       </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
       <c r="C186">
         <v>2.6</v>
       </c>
       <c r="D186">
-        <v>2.9752309966317299</v>
+        <v>316.27879307822502</v>
       </c>
       <c r="E186" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F186">
+        <v>2.9752309966317299</v>
+      </c>
+      <c r="G186">
         <v>2.6981339865766101</v>
-      </c>
-      <c r="G186">
-        <v>316.27879307822502</v>
       </c>
       <c r="H186">
         <v>144.12348767570001</v>
@@ -12214,20 +12661,23 @@
       <c r="A187">
         <v>330</v>
       </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
       <c r="C187">
         <v>5.2</v>
       </c>
       <c r="D187">
-        <v>4.1582459955120896</v>
+        <v>184.26941968567399</v>
       </c>
       <c r="E187" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F187">
+        <v>4.1582459955120896</v>
+      </c>
+      <c r="G187">
         <v>4.0085262686131102</v>
-      </c>
-      <c r="G187">
-        <v>184.26941968567399</v>
       </c>
       <c r="H187">
         <v>5.24739706237487</v>
@@ -12240,20 +12690,23 @@
       <c r="A188">
         <v>331</v>
       </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
       <c r="C188">
         <v>0</v>
       </c>
-      <c r="D188">
-        <v>4.4880628834696203</v>
+      <c r="D188" t="s">
+        <v>4</v>
       </c>
       <c r="E188" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F188">
+        <v>4.4880628834696203</v>
+      </c>
+      <c r="G188">
         <v>3.35039999230542</v>
-      </c>
-      <c r="G188" t="s">
-        <v>4</v>
       </c>
       <c r="H188">
         <v>567.43957681598204</v>
@@ -12266,20 +12719,23 @@
       <c r="A189">
         <v>331</v>
       </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
       <c r="C189">
         <v>2.6</v>
       </c>
       <c r="D189">
-        <v>5.1623183199094296</v>
+        <v>303.10446255008799</v>
       </c>
       <c r="E189" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F189">
+        <v>5.1623183199094296</v>
+      </c>
+      <c r="G189">
         <v>4.94985482083497</v>
-      </c>
-      <c r="G189">
-        <v>303.10446255008799</v>
       </c>
       <c r="H189">
         <v>95.119755113860506</v>
@@ -12292,20 +12748,23 @@
       <c r="A190">
         <v>331</v>
       </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
       <c r="C190">
         <v>5.2</v>
       </c>
       <c r="D190">
-        <v>8.0921224912156102</v>
+        <v>276.82511786639498</v>
       </c>
       <c r="E190" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F190">
+        <v>8.0921224912156102</v>
+      </c>
+      <c r="G190">
         <v>7.1774133113948801</v>
-      </c>
-      <c r="G190">
-        <v>276.82511786639498</v>
       </c>
       <c r="H190">
         <v>189.917055010778</v>
@@ -12318,20 +12777,23 @@
       <c r="A191">
         <v>332</v>
       </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
       <c r="C191">
         <v>0</v>
       </c>
-      <c r="D191">
-        <v>1.52336439600115</v>
+      <c r="D191" t="s">
+        <v>4</v>
       </c>
       <c r="E191" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F191">
+        <v>1.52336439600115</v>
+      </c>
+      <c r="G191">
         <v>1.4835306631402301</v>
-      </c>
-      <c r="G191" t="s">
-        <v>4</v>
       </c>
       <c r="H191">
         <v>5.1625721258253803</v>
@@ -12344,20 +12806,23 @@
       <c r="A192">
         <v>333</v>
       </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
       <c r="C192">
         <v>0</v>
       </c>
-      <c r="D192">
-        <v>1.9197260925761499</v>
+      <c r="D192" t="s">
+        <v>4</v>
       </c>
       <c r="E192" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F192">
+        <v>1.9197260925761499</v>
+      </c>
+      <c r="G192">
         <v>1.24278619877411</v>
-      </c>
-      <c r="G192" t="s">
-        <v>4</v>
       </c>
       <c r="H192">
         <v>237.76932488641901</v>
@@ -12370,20 +12835,23 @@
       <c r="A193">
         <v>333</v>
       </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
       <c r="C193">
         <v>2.6</v>
       </c>
       <c r="D193">
-        <v>3.6359039070021701</v>
+        <v>292.24616807702301</v>
       </c>
       <c r="E193" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F193">
+        <v>3.6359039070021701</v>
+      </c>
+      <c r="G193">
         <v>3.5975180333773999</v>
-      </c>
-      <c r="G193">
-        <v>292.24616807702301</v>
       </c>
       <c r="H193">
         <v>239.68957137692499</v>
@@ -12396,20 +12864,23 @@
       <c r="A194">
         <v>334</v>
       </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
       <c r="C194">
         <v>0</v>
       </c>
-      <c r="D194">
-        <v>6.2285850615537202</v>
+      <c r="D194" t="s">
+        <v>4</v>
       </c>
       <c r="E194" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F194">
+        <v>6.2285850615537202</v>
+      </c>
+      <c r="G194">
         <v>4.9890580113435403</v>
-      </c>
-      <c r="G194" t="s">
-        <v>4</v>
       </c>
       <c r="H194">
         <v>378.55643053118501</v>
@@ -12422,6 +12893,9 @@
       <c r="A195">
         <v>334</v>
       </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
       <c r="C195">
         <v>2.6</v>
       </c>
@@ -12448,20 +12922,23 @@
       <c r="A196">
         <v>334</v>
       </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
       <c r="C196">
         <v>5.2</v>
       </c>
       <c r="D196">
-        <v>3.32188461002292</v>
+        <v>389.237831876516</v>
       </c>
       <c r="E196" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F196">
+        <v>3.32188461002292</v>
+      </c>
+      <c r="G196">
         <v>3.2641845770024398</v>
-      </c>
-      <c r="G196">
-        <v>389.237831876516</v>
       </c>
       <c r="H196">
         <v>196.085252114079</v>
@@ -12474,20 +12951,23 @@
       <c r="A197">
         <v>334</v>
       </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
       <c r="C197">
         <v>7.8</v>
       </c>
       <c r="D197">
-        <v>1.4365551842197699</v>
+        <v>326.18560823225101</v>
       </c>
       <c r="E197" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F197">
+        <v>1.4365551842197699</v>
+      </c>
+      <c r="G197">
         <v>1.37269359223451</v>
-      </c>
-      <c r="G197">
-        <v>326.18560823225101</v>
       </c>
       <c r="H197">
         <v>5.2534663762059397</v>
@@ -12500,20 +12980,23 @@
       <c r="A198">
         <v>334</v>
       </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
       <c r="C198">
         <v>10.4</v>
       </c>
       <c r="D198">
-        <v>1.7280601673806499</v>
+        <v>186.968486770342</v>
       </c>
       <c r="E198" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F198">
+        <v>1.7280601673806499</v>
+      </c>
+      <c r="G198">
         <v>1.60756584618853</v>
-      </c>
-      <c r="G198">
-        <v>186.968486770342</v>
       </c>
       <c r="H198">
         <v>4.9556549856054604</v>
@@ -12526,20 +13009,23 @@
       <c r="A199">
         <v>335</v>
       </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
       <c r="C199">
         <v>0</v>
       </c>
-      <c r="D199">
-        <v>5.9736318677247704</v>
+      <c r="D199" t="s">
+        <v>4</v>
       </c>
       <c r="E199" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F199">
+        <v>5.9736318677247704</v>
+      </c>
+      <c r="G199">
         <v>4.7304813267777499</v>
-      </c>
-      <c r="G199" t="s">
-        <v>4</v>
       </c>
       <c r="H199">
         <v>675.84871206010098</v>
@@ -12552,20 +13038,23 @@
       <c r="A200">
         <v>335</v>
       </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
       <c r="C200">
         <v>2.6</v>
       </c>
       <c r="D200">
-        <v>6.0370299404015197</v>
+        <v>311.72788047389901</v>
       </c>
       <c r="E200" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F200">
+        <v>6.0370299404015197</v>
+      </c>
+      <c r="G200">
         <v>5.3697413149082402</v>
-      </c>
-      <c r="G200">
-        <v>311.72788047389901</v>
       </c>
       <c r="H200">
         <v>85.5948239748801</v>
@@ -12578,20 +13067,23 @@
       <c r="A201">
         <v>335</v>
       </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
       <c r="C201">
         <v>5.2</v>
       </c>
       <c r="D201">
-        <v>2.9436101502021099</v>
+        <v>303.48941535489399</v>
       </c>
       <c r="E201" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F201">
+        <v>2.9436101502021099</v>
+      </c>
+      <c r="G201">
         <v>2.1183190466533901</v>
-      </c>
-      <c r="G201">
-        <v>303.48941535489399</v>
       </c>
       <c r="H201">
         <v>188.563147135197</v>
@@ -12604,20 +13096,23 @@
       <c r="A202">
         <v>335</v>
       </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
       <c r="C202">
         <v>7.8</v>
       </c>
       <c r="D202">
-        <v>3.6211440945234501</v>
+        <v>234.71337154484601</v>
       </c>
       <c r="E202" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F202">
+        <v>3.6211440945234501</v>
+      </c>
+      <c r="G202">
         <v>2.5162962267039699</v>
-      </c>
-      <c r="G202">
-        <v>234.71337154484601</v>
       </c>
       <c r="H202">
         <v>220.41520365474901</v>
@@ -12630,20 +13125,23 @@
       <c r="A203">
         <v>335</v>
       </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
       <c r="C203">
         <v>10.4</v>
       </c>
       <c r="D203">
-        <v>6.8038362072416696</v>
+        <v>248.456932633604</v>
       </c>
       <c r="E203" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F203">
+        <v>6.8038362072416696</v>
+      </c>
+      <c r="G203">
         <v>5.0049391097708202</v>
-      </c>
-      <c r="G203">
-        <v>248.456932633604</v>
       </c>
       <c r="H203">
         <v>123.840799884549</v>
@@ -12656,20 +13154,23 @@
       <c r="A204">
         <v>335</v>
       </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
       <c r="C204">
         <v>13</v>
       </c>
       <c r="D204">
-        <v>13.7297377904647</v>
+        <v>158.16575688493401</v>
       </c>
       <c r="E204" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F204">
+        <v>13.7297377904647</v>
+      </c>
+      <c r="G204">
         <v>11.179272281146</v>
-      </c>
-      <c r="G204">
-        <v>158.16575688493401</v>
       </c>
       <c r="H204">
         <v>230.98483126075101</v>
@@ -12682,20 +13183,23 @@
       <c r="A205">
         <v>335</v>
       </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
       <c r="C205">
         <v>15.6</v>
       </c>
       <c r="D205">
-        <v>11.5486609996558</v>
+        <v>283.08281149728901</v>
       </c>
       <c r="E205" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F205">
+        <v>11.5486609996558</v>
+      </c>
+      <c r="G205">
         <v>10.3561614279407</v>
-      </c>
-      <c r="G205">
-        <v>283.08281149728901</v>
       </c>
       <c r="H205">
         <v>64.544482693148097</v>
@@ -12708,20 +13212,23 @@
       <c r="A206">
         <v>335</v>
       </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
       <c r="C206">
         <v>18.2</v>
       </c>
       <c r="D206">
-        <v>11.733714458939801</v>
+        <v>231.132722746122</v>
       </c>
       <c r="E206" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F206">
+        <v>11.733714458939801</v>
+      </c>
+      <c r="G206">
         <v>9.3771296045083208</v>
-      </c>
-      <c r="G206">
-        <v>231.132722746122</v>
       </c>
       <c r="H206">
         <v>278.435668554904</v>
@@ -12734,20 +13241,23 @@
       <c r="A207">
         <v>335</v>
       </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
       <c r="C207">
         <v>20.8</v>
       </c>
       <c r="D207">
-        <v>8.6638497391380298</v>
+        <v>152.59442308431599</v>
       </c>
       <c r="E207" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F207">
+        <v>8.6638497391380298</v>
+      </c>
+      <c r="G207">
         <v>7.9030541816725099</v>
-      </c>
-      <c r="G207">
-        <v>152.59442308431599</v>
       </c>
       <c r="H207">
         <v>75.013428598163699</v>
@@ -12760,20 +13270,23 @@
       <c r="A208">
         <v>335</v>
       </c>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
       <c r="C208">
         <v>23.4</v>
       </c>
       <c r="D208">
-        <v>11.1141558585703</v>
+        <v>197.10333769381199</v>
       </c>
       <c r="E208" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F208">
+        <v>11.1141558585703</v>
+      </c>
+      <c r="G208">
         <v>9.9949293298884196</v>
-      </c>
-      <c r="G208">
-        <v>197.10333769381199</v>
       </c>
       <c r="H208">
         <v>125.226449956434</v>
@@ -12786,20 +13299,23 @@
       <c r="A209">
         <v>335</v>
       </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
       <c r="C209">
         <v>26</v>
       </c>
       <c r="D209">
-        <v>13.8611380289659</v>
+        <v>158.80541443405201</v>
       </c>
       <c r="E209" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F209">
+        <v>13.8611380289659</v>
+      </c>
+      <c r="G209">
         <v>12.6658252687026</v>
-      </c>
-      <c r="G209">
-        <v>158.80541443405201</v>
       </c>
       <c r="H209">
         <v>96.136508099329603</v>
@@ -12812,20 +13328,23 @@
       <c r="A210">
         <v>335</v>
       </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
       <c r="C210">
         <v>28.6</v>
       </c>
       <c r="D210">
-        <v>12.5512919894537</v>
+        <v>112.72593669875801</v>
       </c>
       <c r="E210" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F210">
+        <v>12.5512919894537</v>
+      </c>
+      <c r="G210">
         <v>11.457862435802801</v>
-      </c>
-      <c r="G210">
-        <v>112.72593669875801</v>
       </c>
       <c r="H210">
         <v>142.30487338987501</v>
@@ -12838,20 +13357,23 @@
       <c r="A211">
         <v>336</v>
       </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
       <c r="C211">
         <v>0</v>
       </c>
-      <c r="D211">
-        <v>9.3750148596602703</v>
+      <c r="D211" t="s">
+        <v>4</v>
       </c>
       <c r="E211" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F211">
+        <v>9.3750148596602703</v>
+      </c>
+      <c r="G211">
         <v>8.5456846513494593</v>
-      </c>
-      <c r="G211" t="s">
-        <v>4</v>
       </c>
       <c r="H211">
         <v>117.165341917598</v>
@@ -12864,20 +13386,23 @@
       <c r="A212">
         <v>336</v>
       </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
       <c r="C212">
         <v>2.6</v>
       </c>
       <c r="D212">
-        <v>10.310903493714299</v>
+        <v>247.244245110544</v>
       </c>
       <c r="E212" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F212">
+        <v>10.310903493714299</v>
+      </c>
+      <c r="G212">
         <v>9.6877141961749906</v>
-      </c>
-      <c r="G212">
-        <v>247.244245110544</v>
       </c>
       <c r="H212">
         <v>109.149595910546</v>
@@ -12890,20 +13415,23 @@
       <c r="A213">
         <v>336</v>
       </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
       <c r="C213">
         <v>5.2</v>
       </c>
       <c r="D213">
-        <v>3.7090120195582399</v>
+        <v>283.67656065534601</v>
       </c>
       <c r="E213" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F213">
+        <v>3.7090120195582399</v>
+      </c>
+      <c r="G213">
         <v>3.0979217712663001</v>
-      </c>
-      <c r="G213">
-        <v>283.67656065534601</v>
       </c>
       <c r="H213">
         <v>44.896719294333998</v>
@@ -12916,20 +13444,23 @@
       <c r="A214">
         <v>337</v>
       </c>
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
       <c r="C214">
         <v>0</v>
       </c>
-      <c r="D214">
-        <v>4.8298048686665798</v>
+      <c r="D214" t="s">
+        <v>4</v>
       </c>
       <c r="E214" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F214">
+        <v>4.8298048686665798</v>
+      </c>
+      <c r="G214">
         <v>4.2190467169058996</v>
-      </c>
-      <c r="G214" t="s">
-        <v>4</v>
       </c>
       <c r="H214">
         <v>84.575425353113999</v>
@@ -12942,20 +13473,23 @@
       <c r="A215">
         <v>337</v>
       </c>
+      <c r="B215" t="s">
+        <v>4</v>
+      </c>
       <c r="C215">
         <v>2.6</v>
       </c>
       <c r="D215">
-        <v>9.3045126612885305</v>
+        <v>261.34818330243201</v>
       </c>
       <c r="E215" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F215">
+        <v>9.3045126612885305</v>
+      </c>
+      <c r="G215">
         <v>7.6660375778790097</v>
-      </c>
-      <c r="G215">
-        <v>261.34818330243201</v>
       </c>
       <c r="H215">
         <v>123.072360129399</v>
@@ -12968,20 +13502,23 @@
       <c r="A216">
         <v>337</v>
       </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
       <c r="C216">
         <v>5.2</v>
       </c>
       <c r="D216">
-        <v>5.57806253674699</v>
+        <v>164.194330710972</v>
       </c>
       <c r="E216" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F216">
+        <v>5.57806253674699</v>
+      </c>
+      <c r="G216">
         <v>5.5116130363352003</v>
-      </c>
-      <c r="G216">
-        <v>164.194330710972</v>
       </c>
       <c r="H216">
         <v>5.3650686891699202</v>
@@ -12994,20 +13531,23 @@
       <c r="A217">
         <v>337</v>
       </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
       <c r="C217">
         <v>7.8</v>
       </c>
       <c r="D217">
-        <v>12.9958494445416</v>
+        <v>267.51947606874398</v>
       </c>
       <c r="E217" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F217">
+        <v>12.9958494445416</v>
+      </c>
+      <c r="G217">
         <v>10.8074893629631</v>
-      </c>
-      <c r="G217">
-        <v>267.51947606874398</v>
       </c>
       <c r="H217">
         <v>195.597281619423</v>
@@ -13020,20 +13560,23 @@
       <c r="A218">
         <v>337</v>
       </c>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
       <c r="C218">
         <v>10.4</v>
       </c>
       <c r="D218">
-        <v>24.1274179664705</v>
+        <v>170.15279430089001</v>
       </c>
       <c r="E218" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F218">
+        <v>24.1274179664705</v>
+      </c>
+      <c r="G218">
         <v>23.0878666964452</v>
-      </c>
-      <c r="G218">
-        <v>170.15279430089001</v>
       </c>
       <c r="H218">
         <v>77.218449099575494</v>
@@ -13046,20 +13589,23 @@
       <c r="A219">
         <v>337</v>
       </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
       <c r="C219">
         <v>13</v>
       </c>
       <c r="D219">
-        <v>19.890817303782601</v>
+        <v>157.574977787801</v>
       </c>
       <c r="E219" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F219">
+        <v>19.890817303782601</v>
+      </c>
+      <c r="G219">
         <v>19.681775290266302</v>
-      </c>
-      <c r="G219">
-        <v>157.574977787801</v>
       </c>
       <c r="H219">
         <v>7.7964761620280498</v>
@@ -13072,20 +13618,23 @@
       <c r="A220">
         <v>338</v>
       </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
       <c r="C220">
         <v>0</v>
       </c>
-      <c r="D220">
-        <v>4.9098339435315204</v>
+      <c r="D220" t="s">
+        <v>4</v>
       </c>
       <c r="E220" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F220">
+        <v>4.9098339435315204</v>
+      </c>
+      <c r="G220">
         <v>4.8561093340452199</v>
-      </c>
-      <c r="G220" t="s">
-        <v>4</v>
       </c>
       <c r="H220">
         <v>5.27657301125467</v>
@@ -13098,20 +13647,23 @@
       <c r="A221">
         <v>338</v>
       </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
       <c r="C221">
         <v>2.6</v>
       </c>
       <c r="D221">
-        <v>4.5800416915422204</v>
+        <v>331.742211773767</v>
       </c>
       <c r="E221" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F221">
+        <v>4.5800416915422204</v>
+      </c>
+      <c r="G221">
         <v>2.8761024522690701</v>
-      </c>
-      <c r="G221">
-        <v>331.742211773767</v>
       </c>
       <c r="H221">
         <v>92.163524931494393</v>
@@ -13124,20 +13676,23 @@
       <c r="A222">
         <v>338</v>
       </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
       <c r="C222">
         <v>5.2</v>
       </c>
       <c r="D222">
-        <v>13.798832580211799</v>
+        <v>319.84363667423901</v>
       </c>
       <c r="E222" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F222">
+        <v>13.798832580211799</v>
+      </c>
+      <c r="G222">
         <v>13.6889746262279</v>
-      </c>
-      <c r="G222">
-        <v>319.84363667423901</v>
       </c>
       <c r="H222">
         <v>9.4055401085295607</v>
@@ -13150,20 +13705,23 @@
       <c r="A223">
         <v>338</v>
       </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
       <c r="C223">
         <v>7.8</v>
       </c>
       <c r="D223">
-        <v>18.570064513258501</v>
+        <v>235.753860451072</v>
       </c>
       <c r="E223" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F223">
+        <v>18.570064513258501</v>
+      </c>
+      <c r="G223">
         <v>17.829279778190099</v>
-      </c>
-      <c r="G223">
-        <v>235.753860451072</v>
       </c>
       <c r="H223">
         <v>26.781552938760299</v>
@@ -13176,20 +13734,23 @@
       <c r="A224">
         <v>338</v>
       </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
       <c r="C224">
         <v>10.4</v>
       </c>
       <c r="D224">
-        <v>20.235381635918898</v>
+        <v>112.23163632941601</v>
       </c>
       <c r="E224" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F224">
+        <v>20.235381635918898</v>
+      </c>
+      <c r="G224">
         <v>20.001967864250499</v>
-      </c>
-      <c r="G224">
-        <v>112.23163632941601</v>
       </c>
       <c r="H224">
         <v>5.3368696881328503</v>
@@ -13202,20 +13763,23 @@
       <c r="A225">
         <v>339</v>
       </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
       <c r="C225">
         <v>0</v>
       </c>
-      <c r="D225">
-        <v>1.11471871243141</v>
+      <c r="D225" t="s">
+        <v>4</v>
       </c>
       <c r="E225" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F225">
+        <v>1.11471871243141</v>
+      </c>
+      <c r="G225">
         <v>1.09528246256941</v>
-      </c>
-      <c r="G225" t="s">
-        <v>4</v>
       </c>
       <c r="H225">
         <v>5.0541362963960097</v>
@@ -13228,20 +13792,23 @@
       <c r="A226">
         <v>339</v>
       </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
       <c r="C226">
         <v>2.6</v>
       </c>
       <c r="D226">
-        <v>7.4520630050004897</v>
+        <v>379.91953058191001</v>
       </c>
       <c r="E226" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F226">
+        <v>7.4520630050004897</v>
+      </c>
+      <c r="G226">
         <v>6.5762316351423298</v>
-      </c>
-      <c r="G226">
-        <v>379.91953058191001</v>
       </c>
       <c r="H226">
         <v>181.29465970296599</v>
@@ -13254,20 +13821,23 @@
       <c r="A227">
         <v>339</v>
       </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
       <c r="C227">
         <v>5.2</v>
       </c>
       <c r="D227">
-        <v>2.9971710117659698</v>
+        <v>260.746175569184</v>
       </c>
       <c r="E227" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F227">
+        <v>2.9971710117659698</v>
+      </c>
+      <c r="G227">
         <v>2.8843811168542102</v>
-      </c>
-      <c r="G227">
-        <v>260.746175569184</v>
       </c>
       <c r="H227">
         <v>30.490755361938898</v>
@@ -13280,20 +13850,23 @@
       <c r="A228">
         <v>339</v>
       </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
       <c r="C228">
         <v>7.8</v>
       </c>
       <c r="D228">
-        <v>5.69826212743423</v>
+        <v>231.67814374028501</v>
       </c>
       <c r="E228" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F228">
+        <v>5.69826212743423</v>
+      </c>
+      <c r="G228">
         <v>3.9669280371641298</v>
-      </c>
-      <c r="G228">
-        <v>231.67814374028501</v>
       </c>
       <c r="H228">
         <v>288.35136665641602</v>
@@ -13306,20 +13879,23 @@
       <c r="A229">
         <v>339</v>
       </c>
+      <c r="B229" t="s">
+        <v>4</v>
+      </c>
       <c r="C229">
         <v>10.4</v>
       </c>
       <c r="D229">
-        <v>3.6207107816406601</v>
+        <v>320.346946124846</v>
       </c>
       <c r="E229" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F229">
+        <v>3.6207107816406601</v>
+      </c>
+      <c r="G229">
         <v>2.9974016483215902</v>
-      </c>
-      <c r="G229">
-        <v>320.346946124846</v>
       </c>
       <c r="H229">
         <v>999.99999996357303</v>
@@ -13332,20 +13908,23 @@
       <c r="A230">
         <v>340</v>
       </c>
+      <c r="B230" t="s">
+        <v>4</v>
+      </c>
       <c r="C230">
         <v>0</v>
       </c>
-      <c r="D230">
-        <v>5.7543512284444702</v>
+      <c r="D230" t="s">
+        <v>4</v>
       </c>
       <c r="E230" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F230">
+        <v>5.7543512284444702</v>
+      </c>
+      <c r="G230">
         <v>4.4019513825889103</v>
-      </c>
-      <c r="G230" t="s">
-        <v>4</v>
       </c>
       <c r="H230">
         <v>168.37724961386499</v>
@@ -13358,20 +13937,23 @@
       <c r="A231">
         <v>340</v>
       </c>
+      <c r="B231" t="s">
+        <v>4</v>
+      </c>
       <c r="C231">
         <v>2.6</v>
       </c>
       <c r="D231">
-        <v>6.4078273782442103</v>
+        <v>223.43118314180001</v>
       </c>
       <c r="E231" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F231">
+        <v>6.4078273782442103</v>
+      </c>
+      <c r="G231">
         <v>5.5820277272216003</v>
-      </c>
-      <c r="G231">
-        <v>223.43118314180001</v>
       </c>
       <c r="H231">
         <v>183.55358755562199</v>
@@ -13384,20 +13966,23 @@
       <c r="A232">
         <v>340</v>
       </c>
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
       <c r="C232">
         <v>5.2</v>
       </c>
       <c r="D232">
-        <v>4.88853808032174</v>
+        <v>183.46953083207299</v>
       </c>
       <c r="E232" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F232">
+        <v>4.88853808032174</v>
+      </c>
+      <c r="G232">
         <v>4.4530944001300501</v>
-      </c>
-      <c r="G232">
-        <v>183.46953083207299</v>
       </c>
       <c r="H232">
         <v>41.371031682002801</v>
@@ -13410,20 +13995,23 @@
       <c r="A233">
         <v>340</v>
       </c>
+      <c r="B233" t="s">
+        <v>4</v>
+      </c>
       <c r="C233">
         <v>7.8</v>
       </c>
       <c r="D233">
-        <v>8.1810952127273993</v>
+        <v>177.981803108565</v>
       </c>
       <c r="E233" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F233">
+        <v>8.1810952127273993</v>
+      </c>
+      <c r="G233">
         <v>7.2928051980724602</v>
-      </c>
-      <c r="G233">
-        <v>177.981803108565</v>
       </c>
       <c r="H233">
         <v>334.981928353515</v>
@@ -13436,20 +14024,23 @@
       <c r="A234">
         <v>341</v>
       </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
       <c r="C234">
         <v>0</v>
       </c>
-      <c r="D234">
-        <v>4.3572064449245804</v>
+      <c r="D234" t="s">
+        <v>4</v>
       </c>
       <c r="E234" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F234">
+        <v>4.3572064449245804</v>
+      </c>
+      <c r="G234">
         <v>3.8517508700019798</v>
-      </c>
-      <c r="G234" t="s">
-        <v>4</v>
       </c>
       <c r="H234">
         <v>113.532739825352</v>
@@ -13462,20 +14053,23 @@
       <c r="A235">
         <v>341</v>
       </c>
+      <c r="B235" t="s">
+        <v>4</v>
+      </c>
       <c r="C235">
         <v>2.6</v>
       </c>
       <c r="D235">
-        <v>4.0682235775261697</v>
+        <v>245.55952890652799</v>
       </c>
       <c r="E235" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F235">
+        <v>4.0682235775261697</v>
+      </c>
+      <c r="G235">
         <v>3.7020736185025398</v>
-      </c>
-      <c r="G235">
-        <v>245.55952890652799</v>
       </c>
       <c r="H235">
         <v>41.424692743124403</v>
@@ -13488,20 +14082,23 @@
       <c r="A236">
         <v>341</v>
       </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
       <c r="C236">
         <v>5.2</v>
       </c>
       <c r="D236">
-        <v>5.7616574364161597</v>
+        <v>185.81159614336499</v>
       </c>
       <c r="E236" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F236">
+        <v>5.7616574364161597</v>
+      </c>
+      <c r="G236">
         <v>4.2396871339876201</v>
-      </c>
-      <c r="G236">
-        <v>185.81159614336499</v>
       </c>
       <c r="H236">
         <v>999.99999962749598</v>
@@ -13514,6 +14111,9 @@
       <c r="A237">
         <v>342</v>
       </c>
+      <c r="B237" t="s">
+        <v>4</v>
+      </c>
       <c r="C237">
         <v>0</v>
       </c>
@@ -13540,20 +14140,23 @@
       <c r="A238">
         <v>342</v>
       </c>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
       <c r="C238">
         <v>2.6</v>
       </c>
-      <c r="D238">
-        <v>4.6815323873155403</v>
+      <c r="D238" t="s">
+        <v>4</v>
       </c>
       <c r="E238" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F238">
+        <v>4.6815323873155403</v>
+      </c>
+      <c r="G238">
         <v>2.1313070962785301</v>
-      </c>
-      <c r="G238" t="s">
-        <v>4</v>
       </c>
       <c r="H238">
         <v>211.19992858098499</v>
@@ -13566,20 +14169,23 @@
       <c r="A239">
         <v>342</v>
       </c>
+      <c r="B239" t="s">
+        <v>4</v>
+      </c>
       <c r="C239">
         <v>5.2</v>
       </c>
       <c r="D239">
-        <v>4.3266436637043704</v>
+        <v>328.43990689446298</v>
       </c>
       <c r="E239" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F239">
+        <v>4.3266436637043704</v>
+      </c>
+      <c r="G239">
         <v>3.6081368189390801</v>
-      </c>
-      <c r="G239">
-        <v>328.43990689446298</v>
       </c>
       <c r="H239">
         <v>249.27694136504201</v>
@@ -13592,20 +14198,23 @@
       <c r="A240">
         <v>342</v>
       </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
       <c r="C240">
         <v>7.8</v>
       </c>
       <c r="D240">
-        <v>3.4745191786298202</v>
+        <v>272.49072749089498</v>
       </c>
       <c r="E240" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F240">
+        <v>3.4745191786298202</v>
+      </c>
+      <c r="G240">
         <v>2.74907156817497</v>
-      </c>
-      <c r="G240">
-        <v>272.49072749089498</v>
       </c>
       <c r="H240">
         <v>194.33698153338199</v>
@@ -13618,20 +14227,23 @@
       <c r="A241">
         <v>342</v>
       </c>
+      <c r="B241" t="s">
+        <v>4</v>
+      </c>
       <c r="C241">
         <v>10.4</v>
       </c>
       <c r="D241">
-        <v>3.0550850060422898</v>
+        <v>256.83656725537799</v>
       </c>
       <c r="E241" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F241">
+        <v>3.0550850060422898</v>
+      </c>
+      <c r="G241">
         <v>2.9889172198237199</v>
-      </c>
-      <c r="G241">
-        <v>256.83656725537799</v>
       </c>
       <c r="H241">
         <v>8.8811521049491606</v>
@@ -13644,20 +14256,23 @@
       <c r="A242">
         <v>342</v>
       </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
       <c r="C242">
         <v>13</v>
       </c>
       <c r="D242">
-        <v>7.3776337247511403</v>
+        <v>255.707005863039</v>
       </c>
       <c r="E242" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F242">
+        <v>7.3776337247511403</v>
+      </c>
+      <c r="G242">
         <v>5.3171056241202397</v>
-      </c>
-      <c r="G242">
-        <v>255.707005863039</v>
       </c>
       <c r="H242">
         <v>236.35473226434399</v>
@@ -13670,20 +14285,23 @@
       <c r="A243">
         <v>342</v>
       </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
       <c r="C243">
         <v>15.6</v>
       </c>
       <c r="D243">
-        <v>9.4765357521710598</v>
+        <v>146.884252943999</v>
       </c>
       <c r="E243" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F243">
+        <v>9.4765357521710598</v>
+      </c>
+      <c r="G243">
         <v>5.4405209255097597</v>
-      </c>
-      <c r="G243">
-        <v>146.884252943999</v>
       </c>
       <c r="H243">
         <v>999.99999934330003</v>
@@ -13696,20 +14314,23 @@
       <c r="A244">
         <v>341</v>
       </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
       <c r="C244">
         <v>0</v>
       </c>
-      <c r="D244">
-        <v>1.5423552420155</v>
+      <c r="D244" t="s">
+        <v>4</v>
       </c>
       <c r="E244" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F244">
+        <v>1.5423552420155</v>
+      </c>
+      <c r="G244">
         <v>1.5649271100412201</v>
-      </c>
-      <c r="G244" t="s">
-        <v>4</v>
       </c>
       <c r="H244">
         <v>5.3313522068609798</v>
@@ -13722,20 +14343,23 @@
       <c r="A245">
         <v>341</v>
       </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
       <c r="C245">
         <v>2.6</v>
       </c>
       <c r="D245">
-        <v>2.2893942777734799</v>
+        <v>378.54728667436598</v>
       </c>
       <c r="E245" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F245">
+        <v>2.2893942777734799</v>
+      </c>
+      <c r="G245">
         <v>2.1947009633893702</v>
-      </c>
-      <c r="G245">
-        <v>378.54728667436598</v>
       </c>
       <c r="H245">
         <v>5.0064627776841899</v>
@@ -13748,20 +14372,23 @@
       <c r="A246">
         <v>341</v>
       </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
       <c r="C246">
         <v>5.2</v>
       </c>
       <c r="D246">
-        <v>4.0322438619433401</v>
+        <v>408.513677680814</v>
       </c>
       <c r="E246" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F246">
+        <v>4.0322438619433401</v>
+      </c>
+      <c r="G246">
         <v>2.9771126896871198</v>
-      </c>
-      <c r="G246">
-        <v>408.513677680814</v>
       </c>
       <c r="H246">
         <v>157.448738768493</v>
@@ -13774,20 +14401,23 @@
       <c r="A247">
         <v>341</v>
       </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
       <c r="C247">
         <v>7.8</v>
       </c>
       <c r="D247">
-        <v>3.2115159388264298</v>
+        <v>358.05817744231098</v>
       </c>
       <c r="E247" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F247">
+        <v>3.2115159388264298</v>
+      </c>
+      <c r="G247">
         <v>3.0140327676929899</v>
-      </c>
-      <c r="G247">
-        <v>358.05817744231098</v>
       </c>
       <c r="H247">
         <v>152.222967914799</v>
@@ -13800,20 +14430,23 @@
       <c r="A248">
         <v>341</v>
       </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
       <c r="C248">
         <v>10.4</v>
       </c>
       <c r="D248">
-        <v>2.5701446631379801</v>
+        <v>281.50979999829099</v>
       </c>
       <c r="E248" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F248">
+        <v>2.5701446631379801</v>
+      </c>
+      <c r="G248">
         <v>2.2127160832778299</v>
-      </c>
-      <c r="G248">
-        <v>281.50979999829099</v>
       </c>
       <c r="H248">
         <v>61.9323639298158</v>
@@ -13826,20 +14459,23 @@
       <c r="A249">
         <v>341</v>
       </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
       <c r="C249">
         <v>13</v>
       </c>
       <c r="D249">
-        <v>3.8335838418116901</v>
+        <v>454.38008307281302</v>
       </c>
       <c r="E249" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F249">
+        <v>3.8335838418116901</v>
+      </c>
+      <c r="G249">
         <v>3.2490080288707102</v>
-      </c>
-      <c r="G249">
-        <v>454.38008307281302</v>
       </c>
       <c r="H249">
         <v>32.809739925644401</v>
@@ -13852,20 +14488,23 @@
       <c r="A250">
         <v>341</v>
       </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
       <c r="C250">
         <v>15.6</v>
       </c>
       <c r="D250">
-        <v>5.1213562722313997</v>
+        <v>65.134175597661297</v>
       </c>
       <c r="E250" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F250">
+        <v>5.1213562722313997</v>
+      </c>
+      <c r="G250">
         <v>3.3686373454458902</v>
-      </c>
-      <c r="G250">
-        <v>65.134175597661297</v>
       </c>
       <c r="H250">
         <v>141.66294881481201</v>
@@ -13878,20 +14517,23 @@
       <c r="A251">
         <v>341</v>
       </c>
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
       <c r="C251">
         <v>18.2</v>
       </c>
       <c r="D251">
-        <v>9.2497364483395792</v>
+        <v>289.81985140824003</v>
       </c>
       <c r="E251" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F251">
+        <v>9.2497364483395792</v>
+      </c>
+      <c r="G251">
         <v>6.7423715449060699</v>
-      </c>
-      <c r="G251">
-        <v>289.81985140824003</v>
       </c>
       <c r="H251">
         <v>117.436508447189</v>
@@ -13904,20 +14546,23 @@
       <c r="A252">
         <v>341</v>
       </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
       <c r="C252">
         <v>20.8</v>
       </c>
       <c r="D252">
-        <v>28.855876294244901</v>
+        <v>292.14772880794101</v>
       </c>
       <c r="E252" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F252">
+        <v>28.855876294244901</v>
+      </c>
+      <c r="G252">
         <v>24.083476717343299</v>
-      </c>
-      <c r="G252">
-        <v>292.14772880794101</v>
       </c>
       <c r="H252">
         <v>999.99999995803296</v>
@@ -13930,20 +14575,23 @@
       <c r="A253">
         <v>342</v>
       </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
       <c r="C253">
         <v>0</v>
       </c>
-      <c r="D253">
-        <v>7.5892317448766304</v>
+      <c r="D253" t="s">
+        <v>4</v>
       </c>
       <c r="E253" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F253">
+        <v>7.5892317448766304</v>
+      </c>
+      <c r="G253">
         <v>6.2655179591010901</v>
-      </c>
-      <c r="G253" t="s">
-        <v>4</v>
       </c>
       <c r="H253">
         <v>163.29877488739399</v>
@@ -13956,20 +14604,23 @@
       <c r="A254">
         <v>342</v>
       </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
       <c r="C254">
         <v>2.6</v>
       </c>
       <c r="D254">
-        <v>9.1473883741491004</v>
+        <v>309.23692737124799</v>
       </c>
       <c r="E254" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F254">
+        <v>9.1473883741491004</v>
+      </c>
+      <c r="G254">
         <v>6.6536575486627099</v>
-      </c>
-      <c r="G254">
-        <v>309.23692737124799</v>
       </c>
       <c r="H254">
         <v>138.47671106543001</v>
@@ -13982,20 +14633,23 @@
       <c r="A255">
         <v>342</v>
       </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
       <c r="C255">
         <v>5.2</v>
       </c>
       <c r="D255">
-        <v>8.3256806567822608</v>
+        <v>235.41891137238699</v>
       </c>
       <c r="E255" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F255">
+        <v>8.3256806567822608</v>
+      </c>
+      <c r="G255">
         <v>6.6465403235092699</v>
-      </c>
-      <c r="G255">
-        <v>235.41891137238699</v>
       </c>
       <c r="H255">
         <v>56.822401244901599</v>
@@ -14008,20 +14662,23 @@
       <c r="A256">
         <v>342</v>
       </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
       <c r="C256">
         <v>7.8</v>
       </c>
       <c r="D256">
-        <v>8.03502462773403</v>
+        <v>161.617429372262</v>
       </c>
       <c r="E256" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F256">
+        <v>8.03502462773403</v>
+      </c>
+      <c r="G256">
         <v>3.8180315922193002</v>
-      </c>
-      <c r="G256">
-        <v>161.617429372262</v>
       </c>
       <c r="H256">
         <v>201.183467851362</v>
@@ -14034,20 +14691,23 @@
       <c r="A257">
         <v>343</v>
       </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
       <c r="C257">
         <v>0</v>
       </c>
-      <c r="D257">
-        <v>3.3915475124177799</v>
+      <c r="D257" t="s">
+        <v>4</v>
       </c>
       <c r="E257" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F257">
+        <v>3.3915475124177799</v>
+      </c>
+      <c r="G257">
         <v>2.6877714327808602</v>
-      </c>
-      <c r="G257" t="s">
-        <v>4</v>
       </c>
       <c r="H257">
         <v>69.943322582767607</v>
@@ -14060,20 +14720,23 @@
       <c r="A258">
         <v>343</v>
       </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
       <c r="C258">
         <v>2.6</v>
       </c>
       <c r="D258">
-        <v>6.3630521434723804</v>
+        <v>269.083713329516</v>
       </c>
       <c r="E258" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F258">
+        <v>6.3630521434723804</v>
+      </c>
+      <c r="G258">
         <v>5.7531853462656697</v>
-      </c>
-      <c r="G258">
-        <v>269.083713329516</v>
       </c>
       <c r="H258">
         <v>75.569355850116906</v>
@@ -14086,20 +14749,23 @@
       <c r="A259">
         <v>345</v>
       </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
       <c r="C259">
         <v>0</v>
       </c>
-      <c r="D259">
-        <v>4.53989591894452</v>
+      <c r="D259" t="s">
+        <v>4</v>
       </c>
       <c r="E259" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F259">
+        <v>4.53989591894452</v>
+      </c>
+      <c r="G259">
         <v>3.7391909021729299</v>
-      </c>
-      <c r="G259" t="s">
-        <v>4</v>
       </c>
       <c r="H259">
         <v>173.68479816049199</v>
@@ -14112,20 +14778,23 @@
       <c r="A260">
         <v>345</v>
       </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
       <c r="C260">
         <v>2.6</v>
       </c>
       <c r="D260">
-        <v>2.0747720177925402</v>
+        <v>296.01726307293097</v>
       </c>
       <c r="E260" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F260">
+        <v>2.0747720177925402</v>
+      </c>
+      <c r="G260">
         <v>1.3948810004730601</v>
-      </c>
-      <c r="G260">
-        <v>296.01726307293097</v>
       </c>
       <c r="H260">
         <v>84.124864991976096</v>
@@ -14138,20 +14807,23 @@
       <c r="A261">
         <v>345</v>
       </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
       <c r="C261">
         <v>5.2</v>
       </c>
       <c r="D261">
-        <v>5.3492324999769503</v>
+        <v>383.30923826894798</v>
       </c>
       <c r="E261" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F261">
+        <v>5.3492324999769503</v>
+      </c>
+      <c r="G261">
         <v>5.3944321535905901</v>
-      </c>
-      <c r="G261">
-        <v>383.30923826894798</v>
       </c>
       <c r="H261">
         <v>5.351610839118</v>
@@ -14164,20 +14836,23 @@
       <c r="A262">
         <v>345</v>
       </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
       <c r="C262">
         <v>7.8</v>
       </c>
       <c r="D262">
-        <v>4.6225513676030401</v>
+        <v>286.66033701746602</v>
       </c>
       <c r="E262" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F262">
+        <v>4.6225513676030401</v>
+      </c>
+      <c r="G262">
         <v>2.9950732133174198</v>
-      </c>
-      <c r="G262">
-        <v>286.66033701746602</v>
       </c>
       <c r="H262">
         <v>238.03415038042499</v>
@@ -14190,20 +14865,23 @@
       <c r="A263">
         <v>345</v>
       </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
       <c r="C263">
         <v>10.4</v>
       </c>
       <c r="D263">
-        <v>8.5022309346758593</v>
+        <v>264.76236514710399</v>
       </c>
       <c r="E263" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F263">
+        <v>8.5022309346758593</v>
+      </c>
+      <c r="G263">
         <v>7.4120778706382904</v>
-      </c>
-      <c r="G263">
-        <v>264.76236514710399</v>
       </c>
       <c r="H263">
         <v>84.981029847097602</v>
@@ -14216,20 +14894,23 @@
       <c r="A264">
         <v>345</v>
       </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
       <c r="C264">
         <v>13</v>
       </c>
       <c r="D264">
-        <v>10.296820925110501</v>
+        <v>201.14447243619901</v>
       </c>
       <c r="E264" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F264">
+        <v>10.296820925110501</v>
+      </c>
+      <c r="G264">
         <v>9.9532985511593601</v>
-      </c>
-      <c r="G264">
-        <v>201.14447243619901</v>
       </c>
       <c r="H264">
         <v>5.2927134435660204</v>
@@ -14242,20 +14923,23 @@
       <c r="A265">
         <v>346</v>
       </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
       <c r="C265">
         <v>0</v>
       </c>
-      <c r="D265">
-        <v>3.5114270680904598</v>
+      <c r="D265" t="s">
+        <v>4</v>
       </c>
       <c r="E265" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F265">
+        <v>3.5114270680904598</v>
+      </c>
+      <c r="G265">
         <v>3.4372759280064198</v>
-      </c>
-      <c r="G265" t="s">
-        <v>4</v>
       </c>
       <c r="H265">
         <v>5.3055148758914799</v>
@@ -14268,20 +14952,23 @@
       <c r="A266">
         <v>346</v>
       </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
       <c r="C266">
         <v>2.6</v>
       </c>
       <c r="D266">
-        <v>2.2607401208071201</v>
+        <v>345.78722168343802</v>
       </c>
       <c r="E266" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F266">
+        <v>2.2607401208071201</v>
+      </c>
+      <c r="G266">
         <v>2.13086993628127</v>
-      </c>
-      <c r="G266">
-        <v>345.78722168343802</v>
       </c>
       <c r="H266">
         <v>61.128638296310697</v>
@@ -14294,20 +14981,23 @@
       <c r="A267">
         <v>346</v>
       </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
       <c r="C267">
         <v>5.2</v>
       </c>
       <c r="D267">
-        <v>3.8185863586585902</v>
+        <v>336.71272844522701</v>
       </c>
       <c r="E267" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F267">
+        <v>3.8185863586585902</v>
+      </c>
+      <c r="G267">
         <v>3.5391056525776601</v>
-      </c>
-      <c r="G267">
-        <v>336.71272844522701</v>
       </c>
       <c r="H267">
         <v>5.2158419267345204</v>
@@ -14320,20 +15010,23 @@
       <c r="A268">
         <v>346</v>
       </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
       <c r="C268">
         <v>7.8</v>
       </c>
       <c r="D268">
-        <v>6.1607491227525504</v>
+        <v>204.798359244816</v>
       </c>
       <c r="E268" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F268">
+        <v>6.1607491227525504</v>
+      </c>
+      <c r="G268">
         <v>6.2939159841929699</v>
-      </c>
-      <c r="G268">
-        <v>204.798359244816</v>
       </c>
       <c r="H268">
         <v>5.39677292088653</v>
@@ -14346,20 +15039,23 @@
       <c r="A269">
         <v>346</v>
       </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
       <c r="C269">
         <v>10.4</v>
       </c>
       <c r="D269">
-        <v>9.7516462043100098</v>
+        <v>203.26183963141801</v>
       </c>
       <c r="E269" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F269">
+        <v>9.7516462043100098</v>
+      </c>
+      <c r="G269">
         <v>9.8326890432723495</v>
-      </c>
-      <c r="G269">
-        <v>203.26183963141801</v>
       </c>
       <c r="H269">
         <v>5.3206355160082</v>
@@ -14372,20 +15068,23 @@
       <c r="A270">
         <v>347</v>
       </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
       <c r="C270">
         <v>0</v>
       </c>
-      <c r="D270">
-        <v>2.0897215074534801</v>
+      <c r="D270" t="s">
+        <v>4</v>
       </c>
       <c r="E270" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F270">
+        <v>2.0897215074534801</v>
+      </c>
+      <c r="G270">
         <v>1.59093755426887</v>
-      </c>
-      <c r="G270" t="s">
-        <v>4</v>
       </c>
       <c r="H270">
         <v>134.31243058833601</v>
@@ -14398,20 +15097,23 @@
       <c r="A271">
         <v>347</v>
       </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
       <c r="C271">
         <v>2.6</v>
       </c>
       <c r="D271">
-        <v>2.5551599537173999</v>
+        <v>268.52150858670802</v>
       </c>
       <c r="E271" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F271">
+        <v>2.5551599537173999</v>
+      </c>
+      <c r="G271">
         <v>2.0592885637151599</v>
-      </c>
-      <c r="G271">
-        <v>268.52150858670802</v>
       </c>
       <c r="H271">
         <v>89.071933850456105</v>
@@ -14424,20 +15126,23 @@
       <c r="A272">
         <v>347</v>
       </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
       <c r="C272">
         <v>5.2</v>
       </c>
       <c r="D272">
-        <v>4.1877142070581099</v>
+        <v>392.50227146239098</v>
       </c>
       <c r="E272" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F272">
+        <v>4.1877142070581099</v>
+      </c>
+      <c r="G272">
         <v>3.8185352672947399</v>
-      </c>
-      <c r="G272">
-        <v>392.50227146239098</v>
       </c>
       <c r="H272">
         <v>5.1825726884694401</v>
@@ -14450,20 +15155,23 @@
       <c r="A273">
         <v>347</v>
       </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
       <c r="C273">
         <v>7.8</v>
       </c>
       <c r="D273">
-        <v>5.4643113432795101</v>
+        <v>302.92065676693898</v>
       </c>
       <c r="E273" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F273">
+        <v>5.4643113432795101</v>
+      </c>
+      <c r="G273">
         <v>5.3826277837036498</v>
-      </c>
-      <c r="G273">
-        <v>302.92065676693898</v>
       </c>
       <c r="H273">
         <v>11.0483561850247</v>
@@ -14476,20 +15184,23 @@
       <c r="A274">
         <v>348</v>
       </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
       <c r="C274">
         <v>0</v>
       </c>
-      <c r="D274">
-        <v>1.9850060302611301</v>
+      <c r="D274" t="s">
+        <v>4</v>
       </c>
       <c r="E274" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F274">
+        <v>1.9850060302611301</v>
+      </c>
+      <c r="G274">
         <v>1.7971323791488301</v>
-      </c>
-      <c r="G274" t="s">
-        <v>4</v>
       </c>
       <c r="H274">
         <v>4.9327621912791901</v>
@@ -14502,20 +15213,23 @@
       <c r="A275">
         <v>348</v>
       </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
       <c r="C275">
         <v>2.6</v>
       </c>
       <c r="D275">
-        <v>2.4412626168154499</v>
+        <v>424.668524098494</v>
       </c>
       <c r="E275" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F275">
+        <v>2.4412626168154499</v>
+      </c>
+      <c r="G275">
         <v>2.46080960132144</v>
-      </c>
-      <c r="G275">
-        <v>424.668524098494</v>
       </c>
       <c r="H275">
         <v>5.3527912366719299</v>
@@ -14528,20 +15242,23 @@
       <c r="A276">
         <v>348</v>
       </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
       <c r="C276">
         <v>5.2</v>
       </c>
       <c r="D276">
-        <v>3.8890808642789301</v>
+        <v>258.399745988544</v>
       </c>
       <c r="E276" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F276">
+        <v>3.8890808642789301</v>
+      </c>
+      <c r="G276">
         <v>3.7553651967200099</v>
-      </c>
-      <c r="G276">
-        <v>258.399745988544</v>
       </c>
       <c r="H276">
         <v>54.082283076797403</v>
@@ -14554,20 +15271,23 @@
       <c r="A277">
         <v>348</v>
       </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
       <c r="C277">
         <v>7.8</v>
       </c>
       <c r="D277">
-        <v>3.7971934021816698</v>
+        <v>254.84594692235899</v>
       </c>
       <c r="E277" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F277">
+        <v>3.7971934021816698</v>
+      </c>
+      <c r="G277">
         <v>3.74008255925941</v>
-      </c>
-      <c r="G277">
-        <v>254.84594692235899</v>
       </c>
       <c r="H277">
         <v>5.3767390376109301</v>
